--- a/Java/BGTransport/src/main/resources/excel/list/pullman_stop_list.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/list/pullman_stop_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86d5980519d90a03/Desktop/BGTransports/Java/BGTransport/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2a8a40ee8ef1bb/Desktop/BGTransport/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{515291E5-FCA5-4722-B75F-03C7AE3E9D22}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC51658B-9592-4A72-B266-D0B899087230}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
   </bookViews>
   <sheets>
     <sheet name="Fermate" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1116">
   <si>
     <t>piazza Libertà</t>
   </si>
@@ -4210,13 +4210,1465 @@
   </si>
   <si>
     <t>province</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>45.68406575</t>
+  </si>
+  <si>
+    <t>9.768195314003592</t>
+  </si>
+  <si>
+    <t>45.68597</t>
+  </si>
+  <si>
+    <t>9.766046</t>
+  </si>
+  <si>
+    <t>45.6867</t>
+  </si>
+  <si>
+    <t>9.766494</t>
+  </si>
+  <si>
+    <t>45.682745</t>
+  </si>
+  <si>
+    <t>9.760869</t>
+  </si>
+  <si>
+    <t>45.684661</t>
+  </si>
+  <si>
+    <t>9.777283</t>
+  </si>
+  <si>
+    <t>45.6839423</t>
+  </si>
+  <si>
+    <t>9.7678164</t>
+  </si>
+  <si>
+    <t>45.739771</t>
+  </si>
+  <si>
+    <t>9.620754</t>
+  </si>
+  <si>
+    <t>45.741281</t>
+  </si>
+  <si>
+    <t>9.605889</t>
+  </si>
+  <si>
+    <t>45.7417342</t>
+  </si>
+  <si>
+    <t>9.6147257</t>
+  </si>
+  <si>
+    <t>45.7499556</t>
+  </si>
+  <si>
+    <t>9.5963684</t>
+  </si>
+  <si>
+    <t>42.2407</t>
+  </si>
+  <si>
+    <t>13.19113</t>
+  </si>
+  <si>
+    <t>42.2409962</t>
+  </si>
+  <si>
+    <t>13.1913421</t>
+  </si>
+  <si>
+    <t>45.660198</t>
+  </si>
+  <si>
+    <t>9.67071</t>
+  </si>
+  <si>
+    <t>45.660815</t>
+  </si>
+  <si>
+    <t>9.674096</t>
+  </si>
+  <si>
+    <t>45.7395116</t>
+  </si>
+  <si>
+    <t>9.6494089</t>
+  </si>
+  <si>
+    <t>45.7037292</t>
+  </si>
+  <si>
+    <t>9.6992648</t>
+  </si>
+  <si>
+    <t>45.6955467</t>
+  </si>
+  <si>
+    <t>9.6851947</t>
+  </si>
+  <si>
+    <t>45.6904762</t>
+  </si>
+  <si>
+    <t>9.6576371</t>
+  </si>
+  <si>
+    <t>45.570421</t>
+  </si>
+  <si>
+    <t>9.57043</t>
+  </si>
+  <si>
+    <t>45.750186</t>
+  </si>
+  <si>
+    <t>9.622056</t>
+  </si>
+  <si>
+    <t>45.69331</t>
+  </si>
+  <si>
+    <t>9.663539</t>
+  </si>
+  <si>
+    <t>45.6796371</t>
+  </si>
+  <si>
+    <t>9.6779589</t>
+  </si>
+  <si>
+    <t>45.631148</t>
+  </si>
+  <si>
+    <t>9.724551</t>
+  </si>
+  <si>
+    <t>45.6930454</t>
+  </si>
+  <si>
+    <t>9.7074832</t>
+  </si>
+  <si>
+    <t>45.6513805</t>
+  </si>
+  <si>
+    <t>9.6535097</t>
+  </si>
+  <si>
+    <t>45.690548</t>
+  </si>
+  <si>
+    <t>9.6954725</t>
+  </si>
+  <si>
+    <t>45.6979186</t>
+  </si>
+  <si>
+    <t>9.5769202</t>
+  </si>
+  <si>
+    <t>45.70649025</t>
+  </si>
+  <si>
+    <t>9.65745699918189</t>
+  </si>
+  <si>
+    <t>45.6732393</t>
+  </si>
+  <si>
+    <t>9.6621552</t>
+  </si>
+  <si>
+    <t>45.67273</t>
+  </si>
+  <si>
+    <t>9.6621076</t>
+  </si>
+  <si>
+    <t>45.6927636</t>
+  </si>
+  <si>
+    <t>9.640755</t>
+  </si>
+  <si>
+    <t>45.6909363</t>
+  </si>
+  <si>
+    <t>9.6462556</t>
+  </si>
+  <si>
+    <t>45.701558</t>
+  </si>
+  <si>
+    <t>9.607757</t>
+  </si>
+  <si>
+    <t>45.682846</t>
+  </si>
+  <si>
+    <t>9.610731</t>
+  </si>
+  <si>
+    <t>45.692978</t>
+  </si>
+  <si>
+    <t>9.597946</t>
+  </si>
+  <si>
+    <t>45.687157</t>
+  </si>
+  <si>
+    <t>9.597472</t>
+  </si>
+  <si>
+    <t>45.690046</t>
+  </si>
+  <si>
+    <t>9.606162</t>
+  </si>
+  <si>
+    <t>45.691054</t>
+  </si>
+  <si>
+    <t>9.621718</t>
+  </si>
+  <si>
+    <t>45.6911403</t>
+  </si>
+  <si>
+    <t>9.621374330347093</t>
+  </si>
+  <si>
+    <t>45.689013</t>
+  </si>
+  <si>
+    <t>9.603208</t>
+  </si>
+  <si>
+    <t>45.648932</t>
+  </si>
+  <si>
+    <t>9.601059</t>
+  </si>
+  <si>
+    <t>45.6515079</t>
+  </si>
+  <si>
+    <t>9.6053258</t>
+  </si>
+  <si>
+    <t>45.657741</t>
+  </si>
+  <si>
+    <t>9.601128</t>
+  </si>
+  <si>
+    <t>45.651758</t>
+  </si>
+  <si>
+    <t>9.585135</t>
+  </si>
+  <si>
+    <t>45.651736</t>
+  </si>
+  <si>
+    <t>9.585117</t>
+  </si>
+  <si>
+    <t>45.6503878</t>
+  </si>
+  <si>
+    <t>9.5953011</t>
+  </si>
+  <si>
+    <t>45.714568</t>
+  </si>
+  <si>
+    <t>9.693825</t>
+  </si>
+  <si>
+    <t>45.70092</t>
+  </si>
+  <si>
+    <t>9.665204</t>
+  </si>
+  <si>
+    <t>45.716196</t>
+  </si>
+  <si>
+    <t>9.776549</t>
+  </si>
+  <si>
+    <t>45.702146</t>
+  </si>
+  <si>
+    <t>9.718823</t>
+  </si>
+  <si>
+    <t>45.704121</t>
+  </si>
+  <si>
+    <t>9.716871</t>
+  </si>
+  <si>
+    <t>45.704323</t>
+  </si>
+  <si>
+    <t>9.712744</t>
+  </si>
+  <si>
+    <t>45.7037349</t>
+  </si>
+  <si>
+    <t>9.7190224</t>
+  </si>
+  <si>
+    <t>45.662557</t>
+  </si>
+  <si>
+    <t>9.7210675</t>
+  </si>
+  <si>
+    <t>45.6637054</t>
+  </si>
+  <si>
+    <t>9.717426</t>
+  </si>
+  <si>
+    <t>45.655168</t>
+  </si>
+  <si>
+    <t>9.724118</t>
+  </si>
+  <si>
+    <t>45.6500741</t>
+  </si>
+  <si>
+    <t>9.7279903</t>
+  </si>
+  <si>
+    <t>45.659832</t>
+  </si>
+  <si>
+    <t>9.72334</t>
+  </si>
+  <si>
+    <t>45.650656</t>
+  </si>
+  <si>
+    <t>9.714129</t>
+  </si>
+  <si>
+    <t>45.658367</t>
+  </si>
+  <si>
+    <t>9.720502</t>
+  </si>
+  <si>
+    <t>45.6521901</t>
+  </si>
+  <si>
+    <t>9.6114701</t>
+  </si>
+  <si>
+    <t>45.665369</t>
+  </si>
+  <si>
+    <t>9.6307</t>
+  </si>
+  <si>
+    <t>45.66291</t>
+  </si>
+  <si>
+    <t>9.627072</t>
+  </si>
+  <si>
+    <t>45.666414</t>
+  </si>
+  <si>
+    <t>9.633463311290143</t>
+  </si>
+  <si>
+    <t>45.662859</t>
+  </si>
+  <si>
+    <t>9.630983</t>
+  </si>
+  <si>
+    <t>45.661748</t>
+  </si>
+  <si>
+    <t>9.621989</t>
+  </si>
+  <si>
+    <t>45.6650271</t>
+  </si>
+  <si>
+    <t>9.6307376</t>
+  </si>
+  <si>
+    <t>45.690341</t>
+  </si>
+  <si>
+    <t>8.930829</t>
+  </si>
+  <si>
+    <t>45.6965945</t>
+  </si>
+  <si>
+    <t>9.6328663</t>
+  </si>
+  <si>
+    <t>45.6936695</t>
+  </si>
+  <si>
+    <t>9.6315372</t>
+  </si>
+  <si>
+    <t>45.695529</t>
+  </si>
+  <si>
+    <t>9.626659</t>
+  </si>
+  <si>
+    <t>45.6934588</t>
+  </si>
+  <si>
+    <t>9.6461114</t>
+  </si>
+  <si>
+    <t>43.433888</t>
+  </si>
+  <si>
+    <t>13.607885</t>
+  </si>
+  <si>
+    <t>45.6866154</t>
+  </si>
+  <si>
+    <t>9.6696987</t>
+  </si>
+  <si>
+    <t>45.6866903</t>
+  </si>
+  <si>
+    <t>9.6701495</t>
+  </si>
+  <si>
+    <t>45.687289</t>
+  </si>
+  <si>
+    <t>9.67243</t>
+  </si>
+  <si>
+    <t>45.694516</t>
+  </si>
+  <si>
+    <t>9.663089</t>
+  </si>
+  <si>
+    <t>45.762104</t>
+  </si>
+  <si>
+    <t>9.70244</t>
+  </si>
+  <si>
+    <t>45.717391</t>
+  </si>
+  <si>
+    <t>9.6833753</t>
+  </si>
+  <si>
+    <t>45.700007</t>
+  </si>
+  <si>
+    <t>9.607382</t>
+  </si>
+  <si>
+    <t>45.700834</t>
+  </si>
+  <si>
+    <t>9.609472</t>
+  </si>
+  <si>
+    <t>45.69868</t>
+  </si>
+  <si>
+    <t>9.608652</t>
+  </si>
+  <si>
+    <t>45.694245</t>
+  </si>
+  <si>
+    <t>9.606065</t>
+  </si>
+  <si>
+    <t>45.700607</t>
+  </si>
+  <si>
+    <t>9.607789</t>
+  </si>
+  <si>
+    <t>45.704017</t>
+  </si>
+  <si>
+    <t>9.608419</t>
+  </si>
+  <si>
+    <t>45.726042</t>
+  </si>
+  <si>
+    <t>9.762314</t>
+  </si>
+  <si>
+    <t>45.734873</t>
+  </si>
+  <si>
+    <t>9.757267</t>
+  </si>
+  <si>
+    <t>45.72165</t>
+  </si>
+  <si>
+    <t>9.765398</t>
+  </si>
+  <si>
+    <t>45.741668</t>
+  </si>
+  <si>
+    <t>9.74552</t>
+  </si>
+  <si>
+    <t>45.7439737</t>
+  </si>
+  <si>
+    <t>9.7592752</t>
+  </si>
+  <si>
+    <t>45.691272</t>
+  </si>
+  <si>
+    <t>9.694198</t>
+  </si>
+  <si>
+    <t>45.675809</t>
+  </si>
+  <si>
+    <t>9.691021</t>
+  </si>
+  <si>
+    <t>45.675998</t>
+  </si>
+  <si>
+    <t>9.691906</t>
+  </si>
+  <si>
+    <t>45.664368</t>
+  </si>
+  <si>
+    <t>9.684532</t>
+  </si>
+  <si>
+    <t>45.629931</t>
+  </si>
+  <si>
+    <t>9.576885</t>
+  </si>
+  <si>
+    <t>45.688167</t>
+  </si>
+  <si>
+    <t>9.638903</t>
+  </si>
+  <si>
+    <t>45.718355200000005</t>
+  </si>
+  <si>
+    <t>9.686476221135457</t>
+  </si>
+  <si>
+    <t>45.7287894</t>
+  </si>
+  <si>
+    <t>9.600771</t>
+  </si>
+  <si>
+    <t>45.726585</t>
+  </si>
+  <si>
+    <t>9.611571</t>
+  </si>
+  <si>
+    <t>45.729803</t>
+  </si>
+  <si>
+    <t>9.605786</t>
+  </si>
+  <si>
+    <t>45.727009</t>
+  </si>
+  <si>
+    <t>9.61014</t>
+  </si>
+  <si>
+    <t>45.7265735</t>
+  </si>
+  <si>
+    <t>9.6072569</t>
+  </si>
+  <si>
+    <t>45.723654</t>
+  </si>
+  <si>
+    <t>9.604242</t>
+  </si>
+  <si>
+    <t>45.7312178</t>
+  </si>
+  <si>
+    <t>9.6070116</t>
+  </si>
+  <si>
+    <t>45.732427</t>
+  </si>
+  <si>
+    <t>9.606679</t>
+  </si>
+  <si>
+    <t>45.7341528</t>
+  </si>
+  <si>
+    <t>9.6048115</t>
+  </si>
+  <si>
+    <t>45.726893</t>
+  </si>
+  <si>
+    <t>9.6080445</t>
+  </si>
+  <si>
+    <t>45.701221</t>
+  </si>
+  <si>
+    <t>9.735125</t>
+  </si>
+  <si>
+    <t>45.6972206</t>
+  </si>
+  <si>
+    <t>9.7385953</t>
+  </si>
+  <si>
+    <t>45.701733</t>
+  </si>
+  <si>
+    <t>9.733783</t>
+  </si>
+  <si>
+    <t>45.701484</t>
+  </si>
+  <si>
+    <t>9.73211</t>
+  </si>
+  <si>
+    <t>45.6966861</t>
+  </si>
+  <si>
+    <t>9.6824766</t>
+  </si>
+  <si>
+    <t>45.696822</t>
+  </si>
+  <si>
+    <t>9.683636</t>
+  </si>
+  <si>
+    <t>45.697909</t>
+  </si>
+  <si>
+    <t>9.690272</t>
+  </si>
+  <si>
+    <t>45.706449</t>
+  </si>
+  <si>
+    <t>9.6873866921423</t>
+  </si>
+  <si>
+    <t>45.7042506</t>
+  </si>
+  <si>
+    <t>9.6777237</t>
+  </si>
+  <si>
+    <t>45.690734</t>
+  </si>
+  <si>
+    <t>9.583269</t>
+  </si>
+  <si>
+    <t>45.7315897</t>
+  </si>
+  <si>
+    <t>9.6538099</t>
+  </si>
+  <si>
+    <t>45.732676</t>
+  </si>
+  <si>
+    <t>9.65202</t>
+  </si>
+  <si>
+    <t>45.7340192</t>
+  </si>
+  <si>
+    <t>9.6593058</t>
+  </si>
+  <si>
+    <t>45.7214117</t>
+  </si>
+  <si>
+    <t>9.6587891</t>
+  </si>
+  <si>
+    <t>45.722301</t>
+  </si>
+  <si>
+    <t>9.65648</t>
+  </si>
+  <si>
+    <t>45.7261486</t>
+  </si>
+  <si>
+    <t>9.651945704549764</t>
+  </si>
+  <si>
+    <t>45.730752</t>
+  </si>
+  <si>
+    <t>9.653882</t>
+  </si>
+  <si>
+    <t>45.7298267</t>
+  </si>
+  <si>
+    <t>9.653209</t>
+  </si>
+  <si>
+    <t>45.732232</t>
+  </si>
+  <si>
+    <t>9.654141</t>
+  </si>
+  <si>
+    <t>45.6937824</t>
+  </si>
+  <si>
+    <t>9.6700043</t>
+  </si>
+  <si>
+    <t>45.6939129</t>
+  </si>
+  <si>
+    <t>9.6698516</t>
+  </si>
+  <si>
+    <t>45.6973732</t>
+  </si>
+  <si>
+    <t>9.6765255</t>
+  </si>
+  <si>
+    <t>45.7270206</t>
+  </si>
+  <si>
+    <t>9.7142369</t>
+  </si>
+  <si>
+    <t>45.72701</t>
+  </si>
+  <si>
+    <t>9.7151932</t>
+  </si>
+  <si>
+    <t>45.725525</t>
+  </si>
+  <si>
+    <t>9.719219</t>
+  </si>
+  <si>
+    <t>45.7225622</t>
+  </si>
+  <si>
+    <t>9.7163267</t>
+  </si>
+  <si>
+    <t>45.729931</t>
+  </si>
+  <si>
+    <t>9.710091</t>
+  </si>
+  <si>
+    <t>45.768165</t>
+  </si>
+  <si>
+    <t>9.561233</t>
+  </si>
+  <si>
+    <t>45.7792318</t>
+  </si>
+  <si>
+    <t>9.5464464</t>
+  </si>
+  <si>
+    <t>45.7183519</t>
+  </si>
+  <si>
+    <t>9.6591323</t>
+  </si>
+  <si>
+    <t>45.7199796</t>
+  </si>
+  <si>
+    <t>9.6602544</t>
+  </si>
+  <si>
+    <t>45.7194691</t>
+  </si>
+  <si>
+    <t>9.6604955</t>
+  </si>
+  <si>
+    <t>45.717322749999994</t>
+  </si>
+  <si>
+    <t>9.675407164256303</t>
+  </si>
+  <si>
+    <t>45.639565</t>
+  </si>
+  <si>
+    <t>9.619367</t>
+  </si>
+  <si>
+    <t>45.709302</t>
+  </si>
+  <si>
+    <t>9.739723</t>
+  </si>
+  <si>
+    <t>45.707377</t>
+  </si>
+  <si>
+    <t>9.730127</t>
+  </si>
+  <si>
+    <t>45.7056577</t>
+  </si>
+  <si>
+    <t>45.706887</t>
+  </si>
+  <si>
+    <t>9.76039</t>
+  </si>
+  <si>
+    <t>45.711236</t>
+  </si>
+  <si>
+    <t>9.732567</t>
+  </si>
+  <si>
+    <t>45.714649</t>
+  </si>
+  <si>
+    <t>9.769388</t>
+  </si>
+  <si>
+    <t>45.689565</t>
+  </si>
+  <si>
+    <t>9.7493</t>
+  </si>
+  <si>
+    <t>45.68155</t>
+  </si>
+  <si>
+    <t>9.709808</t>
+  </si>
+  <si>
+    <t>45.681368</t>
+  </si>
+  <si>
+    <t>9.710584</t>
+  </si>
+  <si>
+    <t>45.6843709</t>
+  </si>
+  <si>
+    <t>9.7179982</t>
+  </si>
+  <si>
+    <t>45.685406</t>
+  </si>
+  <si>
+    <t>9.726039</t>
+  </si>
+  <si>
+    <t>45.679699</t>
+  </si>
+  <si>
+    <t>9.7264781</t>
+  </si>
+  <si>
+    <t>44.347321</t>
+  </si>
+  <si>
+    <t>9.3186138</t>
+  </si>
+  <si>
+    <t>45.6798967</t>
+  </si>
+  <si>
+    <t>9.7449719</t>
+  </si>
+  <si>
+    <t>45.673654</t>
+  </si>
+  <si>
+    <t>9.732748</t>
+  </si>
+  <si>
+    <t>45.684741</t>
+  </si>
+  <si>
+    <t>9.726465</t>
+  </si>
+  <si>
+    <t>45.668612</t>
+  </si>
+  <si>
+    <t>9.7264155</t>
+  </si>
+  <si>
+    <t>45.6849337</t>
+  </si>
+  <si>
+    <t>9.7176852</t>
+  </si>
+  <si>
+    <t>45.684453</t>
+  </si>
+  <si>
+    <t>9.71781</t>
+  </si>
+  <si>
+    <t>45.7445793</t>
+  </si>
+  <si>
+    <t>9.6611952</t>
+  </si>
+  <si>
+    <t>45.732129</t>
+  </si>
+  <si>
+    <t>9.641711</t>
+  </si>
+  <si>
+    <t>45.730758</t>
+  </si>
+  <si>
+    <t>9.633791</t>
+  </si>
+  <si>
+    <t>45.6921266</t>
+  </si>
+  <si>
+    <t>9.675496</t>
+  </si>
+  <si>
+    <t>45.652782</t>
+  </si>
+  <si>
+    <t>9.649928</t>
+  </si>
+  <si>
+    <t>45.645783</t>
+  </si>
+  <si>
+    <t>9.646553</t>
+  </si>
+  <si>
+    <t>45.6588759</t>
+  </si>
+  <si>
+    <t>9.6448435</t>
+  </si>
+  <si>
+    <t>45.651617</t>
+  </si>
+  <si>
+    <t>45.645097</t>
+  </si>
+  <si>
+    <t>9.651454</t>
+  </si>
+  <si>
+    <t>45.658876</t>
+  </si>
+  <si>
+    <t>9.644844</t>
+  </si>
+  <si>
+    <t>45.7187</t>
+  </si>
+  <si>
+    <t>9.706138</t>
+  </si>
+  <si>
+    <t>45.7171285</t>
+  </si>
+  <si>
+    <t>9.7117475</t>
+  </si>
+  <si>
+    <t>45.7136746</t>
+  </si>
+  <si>
+    <t>9.7082033</t>
+  </si>
+  <si>
+    <t>45.7157093</t>
+  </si>
+  <si>
+    <t>9.7060227</t>
+  </si>
+  <si>
+    <t>45.7134389</t>
+  </si>
+  <si>
+    <t>9.7095351</t>
+  </si>
+  <si>
+    <t>45.70144</t>
+  </si>
+  <si>
+    <t>9.772218</t>
+  </si>
+  <si>
+    <t>45.6960539</t>
+  </si>
+  <si>
+    <t>9.7632292</t>
+  </si>
+  <si>
+    <t>45.6987192</t>
+  </si>
+  <si>
+    <t>9.7686636</t>
+  </si>
+  <si>
+    <t>45.6687646</t>
+  </si>
+  <si>
+    <t>9.6048304</t>
+  </si>
+  <si>
+    <t>45.668466</t>
+  </si>
+  <si>
+    <t>9.611157</t>
+  </si>
+  <si>
+    <t>45.674121</t>
+  </si>
+  <si>
+    <t>9.616679</t>
+  </si>
+  <si>
+    <t>45.67006</t>
+  </si>
+  <si>
+    <t>9.611044</t>
+  </si>
+  <si>
+    <t>45.6944076</t>
+  </si>
+  <si>
+    <t>9.711491</t>
+  </si>
+  <si>
+    <t>45.691705400000004</t>
+  </si>
+  <si>
+    <t>9.67439403868027</t>
+  </si>
+  <si>
+    <t>45.7108581</t>
+  </si>
+  <si>
+    <t>9.5988862</t>
+  </si>
+  <si>
+    <t>45.717833</t>
+  </si>
+  <si>
+    <t>9.6075364</t>
+  </si>
+  <si>
+    <t>45.713468</t>
+  </si>
+  <si>
+    <t>9.608192</t>
+  </si>
+  <si>
+    <t>45.720076</t>
+  </si>
+  <si>
+    <t>9.596367</t>
+  </si>
+  <si>
+    <t>45.7174308</t>
+  </si>
+  <si>
+    <t>9.6094013</t>
+  </si>
+  <si>
+    <t>45.719635</t>
+  </si>
+  <si>
+    <t>9.618716</t>
+  </si>
+  <si>
+    <t>45.7134897</t>
+  </si>
+  <si>
+    <t>9.608172209811038</t>
+  </si>
+  <si>
+    <t>45.715278</t>
+  </si>
+  <si>
+    <t>9.6225248</t>
+  </si>
+  <si>
+    <t>45.6957429</t>
+  </si>
+  <si>
+    <t>9.6822502</t>
+  </si>
+  <si>
+    <t>45.6962848</t>
+  </si>
+  <si>
+    <t>9.577582</t>
+  </si>
+  <si>
+    <t>45.694887</t>
+  </si>
+  <si>
+    <t>9.687464</t>
+  </si>
+  <si>
+    <t>45.692053</t>
+  </si>
+  <si>
+    <t>9.697203</t>
+  </si>
+  <si>
+    <t>45.6891023</t>
+  </si>
+  <si>
+    <t>9.7093651</t>
+  </si>
+  <si>
+    <t>45.6953365</t>
+  </si>
+  <si>
+    <t>9.6854393</t>
+  </si>
+  <si>
+    <t>45.6934512</t>
+  </si>
+  <si>
+    <t>9.6461091</t>
+  </si>
+  <si>
+    <t>45.698252</t>
+  </si>
+  <si>
+    <t>9.677263</t>
+  </si>
+  <si>
+    <t>45.6799133</t>
+  </si>
+  <si>
+    <t>9.6654917</t>
+  </si>
+  <si>
+    <t>45.688504</t>
+  </si>
+  <si>
+    <t>9.659486</t>
+  </si>
+  <si>
+    <t>45.680627</t>
+  </si>
+  <si>
+    <t>9.641306</t>
+  </si>
+  <si>
+    <t>45.709825</t>
+  </si>
+  <si>
+    <t>9.695779</t>
+  </si>
+  <si>
+    <t>45.7060879</t>
+  </si>
+  <si>
+    <t>9.6880868</t>
+  </si>
+  <si>
+    <t>45.6977877</t>
+  </si>
+  <si>
+    <t>9.7067448</t>
+  </si>
+  <si>
+    <t>45.692679</t>
+  </si>
+  <si>
+    <t>9.915283</t>
+  </si>
+  <si>
+    <t>45.700215</t>
+  </si>
+  <si>
+    <t>9.665188</t>
+  </si>
+  <si>
+    <t>45.6973735</t>
+  </si>
+  <si>
+    <t>9.6573533</t>
+  </si>
+  <si>
+    <t>45.69703</t>
+  </si>
+  <si>
+    <t>9.658016</t>
+  </si>
+  <si>
+    <t>45.6995116</t>
+  </si>
+  <si>
+    <t>9.6534672</t>
+  </si>
+  <si>
+    <t>45.7033987</t>
+  </si>
+  <si>
+    <t>9.6775992</t>
+  </si>
+  <si>
+    <t>45.689005</t>
+  </si>
+  <si>
+    <t>9.691463</t>
+  </si>
+  <si>
+    <t>45.68185</t>
+  </si>
+  <si>
+    <t>9.681971</t>
+  </si>
+  <si>
+    <t>45.687724</t>
+  </si>
+  <si>
+    <t>9.672336</t>
+  </si>
+  <si>
+    <t>45.688146</t>
+  </si>
+  <si>
+    <t>9.6897775</t>
+  </si>
+  <si>
+    <t>45.719959</t>
+  </si>
+  <si>
+    <t>9.684218</t>
+  </si>
+  <si>
+    <t>45.6845286</t>
+  </si>
+  <si>
+    <t>9.6746959</t>
+  </si>
+  <si>
+    <t>45.7099006</t>
+  </si>
+  <si>
+    <t>9.6658095</t>
+  </si>
+  <si>
+    <t>45.695852</t>
+  </si>
+  <si>
+    <t>9.656807</t>
+  </si>
+  <si>
+    <t>45.687881</t>
+  </si>
+  <si>
+    <t>9.659755</t>
+  </si>
+  <si>
+    <t>45.692265</t>
+  </si>
+  <si>
+    <t>9.672542</t>
+  </si>
+  <si>
+    <t>45.7112527</t>
+  </si>
+  <si>
+    <t>9.671706</t>
+  </si>
+  <si>
+    <t>45.693785</t>
+  </si>
+  <si>
+    <t>9.665726</t>
+  </si>
+  <si>
+    <t>45.7133002</t>
+  </si>
+  <si>
+    <t>9.6683206</t>
+  </si>
+  <si>
+    <t>45.678382</t>
+  </si>
+  <si>
+    <t>9.661491</t>
+  </si>
+  <si>
+    <t>45.73261</t>
+  </si>
+  <si>
+    <t>9.5296</t>
+  </si>
+  <si>
+    <t>45.5503225</t>
+  </si>
+  <si>
+    <t>9.6463334</t>
+  </si>
+  <si>
+    <t>45.7027759</t>
+  </si>
+  <si>
+    <t>9.6821037</t>
+  </si>
+  <si>
+    <t>45.704968</t>
+  </si>
+  <si>
+    <t>9.6852626</t>
+  </si>
+  <si>
+    <t>45.6968942</t>
+  </si>
+  <si>
+    <t>9.653444</t>
+  </si>
+  <si>
+    <t>45.6950522</t>
+  </si>
+  <si>
+    <t>9.6511491</t>
+  </si>
+  <si>
+    <t>45.692399</t>
+  </si>
+  <si>
+    <t>9.664507</t>
+  </si>
+  <si>
+    <t>45.6923233</t>
+  </si>
+  <si>
+    <t>9.664288</t>
+  </si>
+  <si>
+    <t>45.708968</t>
+  </si>
+  <si>
+    <t>9.681591</t>
+  </si>
+  <si>
+    <t>45.74949</t>
+  </si>
+  <si>
+    <t>9.60922</t>
+  </si>
+  <si>
+    <t>45.701953</t>
+  </si>
+  <si>
+    <t>9.739042</t>
+  </si>
+  <si>
+    <t>45.72196395</t>
+  </si>
+  <si>
+    <t>9.736180850000002</t>
+  </si>
+  <si>
+    <t>45.7176276</t>
+  </si>
+  <si>
+    <t>9.732205793700958</t>
+  </si>
+  <si>
+    <t>45.696892</t>
+  </si>
+  <si>
+    <t>9.669219</t>
+  </si>
+  <si>
+    <t>9.697650</t>
+  </si>
+  <si>
+    <t>9.635844</t>
+  </si>
+  <si>
+    <t>45.698876917736165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.698755265585403</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4244,8 +5696,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4257,8 +5717,20 @@
         <fgColor rgb="FFFFFF7F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4318,11 +5790,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4377,6 +5862,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5912,10 +7413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBE9082-5BDB-432F-A5D2-191D3DF93D3F}">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5923,9 +7424,11 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>629</v>
       </c>
@@ -5935,8 +7438,14 @@
       <c r="C1" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>303</v>
       </c>
@@ -5946,8 +7455,14 @@
       <c r="C2" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="22">
+        <v>45665912</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>306</v>
       </c>
@@ -5957,8 +7472,14 @@
       <c r="C3" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="22">
+        <v>45665912</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>307</v>
       </c>
@@ -5968,8 +7489,14 @@
       <c r="C4" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>309</v>
       </c>
@@ -5979,8 +7506,14 @@
       <c r="C5" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>310</v>
       </c>
@@ -5990,8 +7523,14 @@
       <c r="C6" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>311</v>
       </c>
@@ -6001,8 +7540,14 @@
       <c r="C7" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>312</v>
       </c>
@@ -6012,8 +7557,14 @@
       <c r="C8" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>313</v>
       </c>
@@ -6023,8 +7574,14 @@
       <c r="C9" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>314</v>
       </c>
@@ -6034,8 +7591,14 @@
       <c r="C10" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>316</v>
       </c>
@@ -6045,8 +7608,14 @@
       <c r="C11" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>317</v>
       </c>
@@ -6056,8 +7625,14 @@
       <c r="C12" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>318</v>
       </c>
@@ -6067,8 +7642,14 @@
       <c r="C13" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>320</v>
       </c>
@@ -6078,8 +7659,14 @@
       <c r="C14" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>322</v>
       </c>
@@ -6089,8 +7676,14 @@
       <c r="C15" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>323</v>
       </c>
@@ -6100,8 +7693,14 @@
       <c r="C16" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>324</v>
       </c>
@@ -6111,8 +7710,14 @@
       <c r="C17" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>325</v>
       </c>
@@ -6122,8 +7727,14 @@
       <c r="C18" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>326</v>
       </c>
@@ -6133,8 +7744,14 @@
       <c r="C19" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>327</v>
       </c>
@@ -6144,8 +7761,14 @@
       <c r="C20" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>328</v>
       </c>
@@ -6155,8 +7778,14 @@
       <c r="C21" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>329</v>
       </c>
@@ -6166,8 +7795,14 @@
       <c r="C22" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>330</v>
       </c>
@@ -6177,8 +7812,14 @@
       <c r="C23" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>331</v>
       </c>
@@ -6188,8 +7829,14 @@
       <c r="C24" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="23">
+        <v>45702594</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>332</v>
       </c>
@@ -6199,8 +7846,14 @@
       <c r="C25" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>334</v>
       </c>
@@ -6210,8 +7863,14 @@
       <c r="C26" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>335</v>
       </c>
@@ -6221,8 +7880,14 @@
       <c r="C27" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>337</v>
       </c>
@@ -6232,8 +7897,14 @@
       <c r="C28" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>338</v>
       </c>
@@ -6243,8 +7914,14 @@
       <c r="C29" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>339</v>
       </c>
@@ -6254,8 +7931,14 @@
       <c r="C30" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>340</v>
       </c>
@@ -6265,8 +7948,14 @@
       <c r="C31" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>342</v>
       </c>
@@ -6276,8 +7965,14 @@
       <c r="C32" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>344</v>
       </c>
@@ -6287,8 +7982,14 @@
       <c r="C33" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>345</v>
       </c>
@@ -6298,8 +7999,14 @@
       <c r="C34" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>346</v>
       </c>
@@ -6309,8 +8016,14 @@
       <c r="C35" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>347</v>
       </c>
@@ -6320,8 +8033,14 @@
       <c r="C36" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>349</v>
       </c>
@@ -6331,8 +8050,14 @@
       <c r="C37" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>351</v>
       </c>
@@ -6342,8 +8067,14 @@
       <c r="C38" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>352</v>
       </c>
@@ -6353,8 +8084,14 @@
       <c r="C39" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>354</v>
       </c>
@@ -6364,8 +8101,14 @@
       <c r="C40" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>355</v>
       </c>
@@ -6375,8 +8118,14 @@
       <c r="C41" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>357</v>
       </c>
@@ -6386,8 +8135,14 @@
       <c r="C42" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>358</v>
       </c>
@@ -6397,8 +8152,14 @@
       <c r="C43" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>359</v>
       </c>
@@ -6408,8 +8169,14 @@
       <c r="C44" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>360</v>
       </c>
@@ -6419,8 +8186,14 @@
       <c r="C45" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>361</v>
       </c>
@@ -6430,8 +8203,14 @@
       <c r="C46" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>363</v>
       </c>
@@ -6441,8 +8220,14 @@
       <c r="C47" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>365</v>
       </c>
@@ -6452,8 +8237,14 @@
       <c r="C48" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>366</v>
       </c>
@@ -6463,8 +8254,14 @@
       <c r="C49" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>367</v>
       </c>
@@ -6474,8 +8271,14 @@
       <c r="C50" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>368</v>
       </c>
@@ -6485,8 +8288,14 @@
       <c r="C51" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>369</v>
       </c>
@@ -6496,8 +8305,14 @@
       <c r="C52" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>370</v>
       </c>
@@ -6507,8 +8322,14 @@
       <c r="C53" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>371</v>
       </c>
@@ -6518,8 +8339,14 @@
       <c r="C54" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>373</v>
       </c>
@@ -6529,8 +8356,14 @@
       <c r="C55" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>374</v>
       </c>
@@ -6540,8 +8373,14 @@
       <c r="C56" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>375</v>
       </c>
@@ -6551,8 +8390,14 @@
       <c r="C57" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>376</v>
       </c>
@@ -6562,8 +8407,14 @@
       <c r="C58" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>377</v>
       </c>
@@ -6573,8 +8424,14 @@
       <c r="C59" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>378</v>
       </c>
@@ -6584,8 +8441,14 @@
       <c r="C60" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>379</v>
       </c>
@@ -6595,8 +8458,14 @@
       <c r="C61" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>380</v>
       </c>
@@ -6606,8 +8475,14 @@
       <c r="C62" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>381</v>
       </c>
@@ -6617,8 +8492,14 @@
       <c r="C63" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>383</v>
       </c>
@@ -6628,8 +8509,14 @@
       <c r="C64" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>385</v>
       </c>
@@ -6639,8 +8526,14 @@
       <c r="C65" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>386</v>
       </c>
@@ -6650,8 +8543,14 @@
       <c r="C66" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>387</v>
       </c>
@@ -6661,8 +8560,14 @@
       <c r="C67" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>388</v>
       </c>
@@ -6672,8 +8577,14 @@
       <c r="C68" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>390</v>
       </c>
@@ -6683,8 +8594,14 @@
       <c r="C69" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>391</v>
       </c>
@@ -6694,8 +8611,14 @@
       <c r="C70" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>392</v>
       </c>
@@ -6705,8 +8628,14 @@
       <c r="C71" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>393</v>
       </c>
@@ -6716,8 +8645,14 @@
       <c r="C72" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>394</v>
       </c>
@@ -6727,8 +8662,14 @@
       <c r="C73" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>395</v>
       </c>
@@ -6738,8 +8679,14 @@
       <c r="C74" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>396</v>
       </c>
@@ -6749,8 +8696,14 @@
       <c r="C75" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>398</v>
       </c>
@@ -6760,8 +8713,14 @@
       <c r="C76" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>400</v>
       </c>
@@ -6771,8 +8730,14 @@
       <c r="C77" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>401</v>
       </c>
@@ -6782,8 +8747,14 @@
       <c r="C78" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>402</v>
       </c>
@@ -6793,8 +8764,14 @@
       <c r="C79" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>403</v>
       </c>
@@ -6804,8 +8781,14 @@
       <c r="C80" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>404</v>
       </c>
@@ -6815,8 +8798,14 @@
       <c r="C81" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>405</v>
       </c>
@@ -6826,8 +8815,14 @@
       <c r="C82" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>406</v>
       </c>
@@ -6837,8 +8832,14 @@
       <c r="C83" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>408</v>
       </c>
@@ -6848,8 +8849,14 @@
       <c r="C84" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>410</v>
       </c>
@@ -6859,8 +8866,14 @@
       <c r="C85" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>411</v>
       </c>
@@ -6870,8 +8883,14 @@
       <c r="C86" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>412</v>
       </c>
@@ -6881,8 +8900,14 @@
       <c r="C87" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>413</v>
       </c>
@@ -6892,8 +8917,14 @@
       <c r="C88" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>415</v>
       </c>
@@ -6903,8 +8934,14 @@
       <c r="C89" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>416</v>
       </c>
@@ -6914,8 +8951,14 @@
       <c r="C90" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>417</v>
       </c>
@@ -6925,8 +8968,14 @@
       <c r="C91" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>418</v>
       </c>
@@ -6936,8 +8985,14 @@
       <c r="C92" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>419</v>
       </c>
@@ -6947,8 +9002,14 @@
       <c r="C93" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>420</v>
       </c>
@@ -6958,8 +9019,14 @@
       <c r="C94" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>421</v>
       </c>
@@ -6969,8 +9036,14 @@
       <c r="C95" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>422</v>
       </c>
@@ -6980,8 +9053,14 @@
       <c r="C96" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>423</v>
       </c>
@@ -6991,8 +9070,14 @@
       <c r="C97" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>424</v>
       </c>
@@ -7002,8 +9087,14 @@
       <c r="C98" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>425</v>
       </c>
@@ -7013,8 +9104,14 @@
       <c r="C99" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>426</v>
       </c>
@@ -7024,8 +9121,14 @@
       <c r="C100" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>427</v>
       </c>
@@ -7035,8 +9138,14 @@
       <c r="C101" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>428</v>
       </c>
@@ -7046,8 +9155,14 @@
       <c r="C102" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>430</v>
       </c>
@@ -7057,8 +9172,14 @@
       <c r="C103" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>431</v>
       </c>
@@ -7068,8 +9189,14 @@
       <c r="C104" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>432</v>
       </c>
@@ -7079,8 +9206,14 @@
       <c r="C105" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>433</v>
       </c>
@@ -7090,8 +9223,14 @@
       <c r="C106" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>434</v>
       </c>
@@ -7101,8 +9240,14 @@
       <c r="C107" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>435</v>
       </c>
@@ -7112,8 +9257,14 @@
       <c r="C108" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>437</v>
       </c>
@@ -7123,8 +9274,14 @@
       <c r="C109" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>438</v>
       </c>
@@ -7134,8 +9291,14 @@
       <c r="C110" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>439</v>
       </c>
@@ -7145,8 +9308,14 @@
       <c r="C111" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>441</v>
       </c>
@@ -7156,8 +9325,14 @@
       <c r="C112" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>442</v>
       </c>
@@ -7167,8 +9342,14 @@
       <c r="C113" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>443</v>
       </c>
@@ -7178,8 +9359,14 @@
       <c r="C114" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>444</v>
       </c>
@@ -7189,8 +9376,14 @@
       <c r="C115" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>445</v>
       </c>
@@ -7200,8 +9393,14 @@
       <c r="C116" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>447</v>
       </c>
@@ -7211,8 +9410,14 @@
       <c r="C117" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>448</v>
       </c>
@@ -7222,8 +9427,14 @@
       <c r="C118" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>449</v>
       </c>
@@ -7233,8 +9444,14 @@
       <c r="C119" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="20" t="s">
+        <v>834</v>
+      </c>
+      <c r="E119" s="20" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>450</v>
       </c>
@@ -7244,8 +9461,14 @@
       <c r="C120" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>451</v>
       </c>
@@ -7255,8 +9478,14 @@
       <c r="C121" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>452</v>
       </c>
@@ -7266,8 +9495,14 @@
       <c r="C122" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>453</v>
       </c>
@@ -7277,8 +9512,14 @@
       <c r="C123" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>454</v>
       </c>
@@ -7288,8 +9529,14 @@
       <c r="C124" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>455</v>
       </c>
@@ -7299,8 +9546,14 @@
       <c r="C125" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
         <v>456</v>
       </c>
@@ -7310,8 +9563,14 @@
       <c r="C126" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>458</v>
       </c>
@@ -7321,8 +9580,14 @@
       <c r="C127" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="E127" s="20" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>459</v>
       </c>
@@ -7332,8 +9597,14 @@
       <c r="C128" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>460</v>
       </c>
@@ -7343,8 +9614,14 @@
       <c r="C129" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>0</v>
       </c>
@@ -7354,8 +9631,14 @@
       <c r="C130" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
         <v>461</v>
       </c>
@@ -7365,8 +9648,14 @@
       <c r="C131" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="E131" s="20" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>462</v>
       </c>
@@ -7376,8 +9665,14 @@
       <c r="C132" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
         <v>463</v>
       </c>
@@ -7387,8 +9682,14 @@
       <c r="C133" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="E133" s="20" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>464</v>
       </c>
@@ -7398,8 +9699,14 @@
       <c r="C134" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
         <v>465</v>
       </c>
@@ -7409,8 +9716,14 @@
       <c r="C135" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="E135" s="20" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>466</v>
       </c>
@@ -7420,8 +9733,14 @@
       <c r="C136" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
         <v>467</v>
       </c>
@@ -7431,8 +9750,14 @@
       <c r="C137" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
         <v>468</v>
       </c>
@@ -7442,8 +9767,14 @@
       <c r="C138" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
         <v>470</v>
       </c>
@@ -7453,8 +9784,14 @@
       <c r="C139" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>471</v>
       </c>
@@ -7464,8 +9801,14 @@
       <c r="C140" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>472</v>
       </c>
@@ -7475,8 +9818,14 @@
       <c r="C141" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>473</v>
       </c>
@@ -7486,8 +9835,14 @@
       <c r="C142" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
         <v>474</v>
       </c>
@@ -7497,8 +9852,14 @@
       <c r="C143" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
         <v>475</v>
       </c>
@@ -7508,8 +9869,14 @@
       <c r="C144" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
         <v>476</v>
       </c>
@@ -7519,8 +9886,14 @@
       <c r="C145" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="E145" s="20" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
         <v>477</v>
       </c>
@@ -7530,8 +9903,14 @@
       <c r="C146" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>478</v>
       </c>
@@ -7541,8 +9920,14 @@
       <c r="C147" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>479</v>
       </c>
@@ -7552,8 +9937,14 @@
       <c r="C148" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>480</v>
       </c>
@@ -7563,8 +9954,14 @@
       <c r="C149" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>481</v>
       </c>
@@ -7574,8 +9971,14 @@
       <c r="C150" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="19" t="s">
+        <v>890</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
         <v>482</v>
       </c>
@@ -7585,8 +9988,14 @@
       <c r="C151" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="E151" s="20" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
         <v>484</v>
       </c>
@@ -7596,8 +10005,14 @@
       <c r="C152" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
         <v>485</v>
       </c>
@@ -7607,8 +10022,14 @@
       <c r="C153" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E153" s="20" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
         <v>486</v>
       </c>
@@ -7618,8 +10039,14 @@
       <c r="C154" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="19" t="s">
+        <v>898</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
         <v>487</v>
       </c>
@@ -7629,8 +10056,14 @@
       <c r="C155" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="20" t="s">
+        <v>900</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>488</v>
       </c>
@@ -7640,8 +10073,14 @@
       <c r="C156" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="19" t="s">
+        <v>902</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
         <v>490</v>
       </c>
@@ -7651,8 +10090,14 @@
       <c r="C157" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>491</v>
       </c>
@@ -7662,8 +10107,14 @@
       <c r="C158" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="19" t="s">
+        <v>906</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
         <v>492</v>
       </c>
@@ -7673,8 +10124,14 @@
       <c r="C159" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
         <v>493</v>
       </c>
@@ -7684,8 +10141,14 @@
       <c r="C160" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="19" t="s">
+        <v>910</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>494</v>
       </c>
@@ -7695,8 +10158,14 @@
       <c r="C161" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
         <v>495</v>
       </c>
@@ -7706,8 +10175,14 @@
       <c r="C162" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="19" t="s">
+        <v>914</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
         <v>496</v>
       </c>
@@ -7717,8 +10192,14 @@
       <c r="C163" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
         <v>498</v>
       </c>
@@ -7728,8 +10209,14 @@
       <c r="C164" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
         <v>499</v>
       </c>
@@ -7739,8 +10226,14 @@
       <c r="C165" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
         <v>500</v>
       </c>
@@ -7750,8 +10243,14 @@
       <c r="C166" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="19" t="s">
+        <v>921</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
         <v>501</v>
       </c>
@@ -7761,8 +10260,14 @@
       <c r="C167" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="E167" s="20" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
         <v>502</v>
       </c>
@@ -7772,8 +10277,14 @@
       <c r="C168" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="19" t="s">
+        <v>925</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
         <v>503</v>
       </c>
@@ -7783,8 +10294,14 @@
       <c r="C169" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
         <v>505</v>
       </c>
@@ -7794,8 +10311,14 @@
       <c r="C170" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
         <v>506</v>
       </c>
@@ -7805,8 +10328,14 @@
       <c r="C171" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
         <v>507</v>
       </c>
@@ -7816,8 +10345,14 @@
       <c r="C172" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
         <v>1</v>
       </c>
@@ -7827,8 +10362,14 @@
       <c r="C173" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="20" t="s">
+        <v>935</v>
+      </c>
+      <c r="E173" s="20" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
         <v>508</v>
       </c>
@@ -7838,8 +10379,14 @@
       <c r="C174" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="E174" s="19" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
         <v>509</v>
       </c>
@@ -7849,8 +10396,14 @@
       <c r="C175" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="E175" s="20" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
         <v>510</v>
       </c>
@@ -7860,8 +10413,14 @@
       <c r="C176" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="E176" s="19" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>511</v>
       </c>
@@ -7871,8 +10430,14 @@
       <c r="C177" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="E177" s="20" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
         <v>512</v>
       </c>
@@ -7882,8 +10447,14 @@
       <c r="C178" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>513</v>
       </c>
@@ -7893,8 +10464,14 @@
       <c r="C179" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="E179" s="20" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>514</v>
       </c>
@@ -7904,8 +10481,14 @@
       <c r="C180" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="E180" s="19" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
         <v>515</v>
       </c>
@@ -7915,8 +10498,14 @@
       <c r="C181" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="20" t="s">
+        <v>945</v>
+      </c>
+      <c r="E181" s="20" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
         <v>516</v>
       </c>
@@ -7926,8 +10515,14 @@
       <c r="C182" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="E182" s="19" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
         <v>517</v>
       </c>
@@ -7937,8 +10532,14 @@
       <c r="C183" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="20" t="s">
+        <v>949</v>
+      </c>
+      <c r="E183" s="20" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>518</v>
       </c>
@@ -7948,8 +10549,14 @@
       <c r="C184" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>519</v>
       </c>
@@ -7959,8 +10566,14 @@
       <c r="C185" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="E185" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
         <v>521</v>
       </c>
@@ -7970,8 +10583,14 @@
       <c r="C186" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="E186" s="19" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
         <v>522</v>
       </c>
@@ -7981,8 +10600,14 @@
       <c r="C187" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="E187" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
         <v>523</v>
       </c>
@@ -7992,8 +10617,14 @@
       <c r="C188" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="E188" s="19" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
         <v>524</v>
       </c>
@@ -8003,8 +10634,14 @@
       <c r="C189" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="E189" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
         <v>525</v>
       </c>
@@ -8014,8 +10651,14 @@
       <c r="C190" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="E190" s="19" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
         <v>526</v>
       </c>
@@ -8025,8 +10668,14 @@
       <c r="C191" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E191" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
         <v>527</v>
       </c>
@@ -8036,8 +10685,14 @@
       <c r="C192" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="E192" s="19" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
         <v>528</v>
       </c>
@@ -8047,8 +10702,14 @@
       <c r="C193" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="E193" s="20" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
         <v>529</v>
       </c>
@@ -8058,8 +10719,14 @@
       <c r="C194" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="E194" s="19" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
         <v>530</v>
       </c>
@@ -8069,8 +10736,14 @@
       <c r="C195" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E195" s="20" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
         <v>531</v>
       </c>
@@ -8080,8 +10753,14 @@
       <c r="C196" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="E196" s="19" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>532</v>
       </c>
@@ -8091,8 +10770,14 @@
       <c r="C197" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="E197" s="20" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>533</v>
       </c>
@@ -8102,8 +10787,14 @@
       <c r="C198" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="19" t="s">
+        <v>972</v>
+      </c>
+      <c r="E198" s="19" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
         <v>535</v>
       </c>
@@ -8113,8 +10804,14 @@
       <c r="C199" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="E199" s="20" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>536</v>
       </c>
@@ -8124,8 +10821,14 @@
       <c r="C200" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>537</v>
       </c>
@@ -8135,8 +10838,14 @@
       <c r="C201" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="E201" s="20" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
         <v>538</v>
       </c>
@@ -8146,8 +10855,14 @@
       <c r="C202" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="E202" s="19" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
         <v>539</v>
       </c>
@@ -8157,8 +10872,14 @@
       <c r="C203" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="E203" s="20" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
         <v>541</v>
       </c>
@@ -8168,8 +10889,14 @@
       <c r="C204" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="19" t="s">
+        <v>984</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
         <v>542</v>
       </c>
@@ -8179,8 +10906,14 @@
       <c r="C205" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="E205" s="20" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>543</v>
       </c>
@@ -8190,8 +10923,10 @@
       <c r="C206" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
         <v>544</v>
       </c>
@@ -8201,8 +10936,14 @@
       <c r="C207" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="20" t="s">
+        <v>988</v>
+      </c>
+      <c r="E207" s="20" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
         <v>546</v>
       </c>
@@ -8212,8 +10953,14 @@
       <c r="C208" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E208" s="19" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
         <v>547</v>
       </c>
@@ -8223,8 +10970,14 @@
       <c r="C209" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="E209" s="20" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
         <v>548</v>
       </c>
@@ -8234,8 +10987,14 @@
       <c r="C210" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="E210" s="19" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
         <v>549</v>
       </c>
@@ -8245,8 +11004,14 @@
       <c r="C211" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="E211" s="20" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="18" t="s">
         <v>550</v>
       </c>
@@ -8256,8 +11021,14 @@
       <c r="C212" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="19" t="s">
+        <v>996</v>
+      </c>
+      <c r="E212" s="19" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
         <v>551</v>
       </c>
@@ -8267,8 +11038,14 @@
       <c r="C213" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="20" t="s">
+        <v>998</v>
+      </c>
+      <c r="E213" s="20" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
         <v>552</v>
       </c>
@@ -8278,8 +11055,14 @@
       <c r="C214" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="19" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E214" s="19" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="s">
         <v>554</v>
       </c>
@@ -8289,8 +11072,14 @@
       <c r="C215" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E215" s="20" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="18" t="s">
         <v>555</v>
       </c>
@@ -8300,8 +11089,14 @@
       <c r="C216" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E216" s="19" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
         <v>556</v>
       </c>
@@ -8311,8 +11106,14 @@
       <c r="C217" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E217" s="20" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="18" t="s">
         <v>557</v>
       </c>
@@ -8322,8 +11123,14 @@
       <c r="C218" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E218" s="19" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="18" t="s">
         <v>558</v>
       </c>
@@ -8333,8 +11140,14 @@
       <c r="C219" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E219" s="20" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="18" t="s">
         <v>559</v>
       </c>
@@ -8344,8 +11157,14 @@
       <c r="C220" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E220" s="19" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
         <v>560</v>
       </c>
@@ -8355,8 +11174,14 @@
       <c r="C221" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E221" s="20" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
         <v>561</v>
       </c>
@@ -8366,8 +11191,14 @@
       <c r="C222" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E222" s="19" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="18" t="s">
         <v>562</v>
       </c>
@@ -8377,8 +11208,14 @@
       <c r="C223" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E223" s="20" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="18" t="s">
         <v>563</v>
       </c>
@@ -8388,8 +11225,14 @@
       <c r="C224" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="18" t="s">
         <v>564</v>
       </c>
@@ -8399,8 +11242,14 @@
       <c r="C225" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E225" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="18" t="s">
         <v>565</v>
       </c>
@@ -8410,8 +11259,14 @@
       <c r="C226" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E226" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="18" t="s">
         <v>566</v>
       </c>
@@ -8421,8 +11276,14 @@
       <c r="C227" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E227" s="20" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="18" t="s">
         <v>567</v>
       </c>
@@ -8432,8 +11293,14 @@
       <c r="C228" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E228" s="19" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="18" t="s">
         <v>568</v>
       </c>
@@ -8443,8 +11310,14 @@
       <c r="C229" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E229" s="20" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="18" t="s">
         <v>569</v>
       </c>
@@ -8454,8 +11327,14 @@
       <c r="C230" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E230" s="19" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
         <v>570</v>
       </c>
@@ -8465,8 +11344,14 @@
       <c r="C231" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E231" s="20" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="18" t="s">
         <v>571</v>
       </c>
@@ -8476,8 +11361,14 @@
       <c r="C232" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E232" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="18" t="s">
         <v>572</v>
       </c>
@@ -8487,8 +11378,14 @@
       <c r="C233" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E233" s="20" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="18" t="s">
         <v>573</v>
       </c>
@@ -8498,8 +11395,14 @@
       <c r="C234" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E234" s="19" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="18" t="s">
         <v>574</v>
       </c>
@@ -8509,8 +11412,14 @@
       <c r="C235" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E235" s="20" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="18" t="s">
         <v>575</v>
       </c>
@@ -8520,8 +11429,14 @@
       <c r="C236" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="19" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E236" s="19" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="18" t="s">
         <v>576</v>
       </c>
@@ -8531,8 +11446,14 @@
       <c r="C237" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E237" s="20" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="18" t="s">
         <v>577</v>
       </c>
@@ -8542,8 +11463,14 @@
       <c r="C238" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E238" s="19" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="18" t="s">
         <v>578</v>
       </c>
@@ -8553,8 +11480,14 @@
       <c r="C239" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E239" s="20" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="18" t="s">
         <v>579</v>
       </c>
@@ -8564,8 +11497,14 @@
       <c r="C240" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E240" s="19" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="18" t="s">
         <v>580</v>
       </c>
@@ -8575,8 +11514,14 @@
       <c r="C241" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E241" s="20" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="18" t="s">
         <v>581</v>
       </c>
@@ -8586,8 +11531,14 @@
       <c r="C242" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="19" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E242" s="19" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="18" t="s">
         <v>582</v>
       </c>
@@ -8597,8 +11548,14 @@
       <c r="C243" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E243" s="20" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="18" t="s">
         <v>583</v>
       </c>
@@ -8608,8 +11565,14 @@
       <c r="C244" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="19" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E244" s="19" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="18" t="s">
         <v>584</v>
       </c>
@@ -8619,8 +11582,14 @@
       <c r="C245" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" s="20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E245" s="20" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="18" t="s">
         <v>585</v>
       </c>
@@ -8630,8 +11599,14 @@
       <c r="C246" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E246" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="18" t="s">
         <v>586</v>
       </c>
@@ -8641,8 +11616,14 @@
       <c r="C247" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E247" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="18" t="s">
         <v>587</v>
       </c>
@@ -8652,8 +11633,14 @@
       <c r="C248" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E248" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="18" t="s">
         <v>588</v>
       </c>
@@ -8663,8 +11650,14 @@
       <c r="C249" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E249" s="20" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="18" t="s">
         <v>589</v>
       </c>
@@ -8674,8 +11667,14 @@
       <c r="C250" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" s="19" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E250" s="19" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="18" t="s">
         <v>590</v>
       </c>
@@ -8685,8 +11684,14 @@
       <c r="C251" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E251" s="20" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="18" t="s">
         <v>591</v>
       </c>
@@ -8696,8 +11701,14 @@
       <c r="C252" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" s="19" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E252" s="19" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="18" t="s">
         <v>592</v>
       </c>
@@ -8707,8 +11718,14 @@
       <c r="C253" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E253" s="20" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="18" t="s">
         <v>593</v>
       </c>
@@ -8718,8 +11735,14 @@
       <c r="C254" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" s="19" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E254" s="19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="18" t="s">
         <v>594</v>
       </c>
@@ -8729,8 +11752,14 @@
       <c r="C255" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E255" s="20" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="18" t="s">
         <v>595</v>
       </c>
@@ -8740,8 +11769,14 @@
       <c r="C256" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E256" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="18" t="s">
         <v>596</v>
       </c>
@@ -8751,8 +11786,14 @@
       <c r="C257" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E257" s="20" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="18" t="s">
         <v>597</v>
       </c>
@@ -8762,8 +11803,14 @@
       <c r="C258" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="19" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E258" s="19" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="18" t="s">
         <v>598</v>
       </c>
@@ -8773,8 +11820,14 @@
       <c r="C259" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E259" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="18" t="s">
         <v>599</v>
       </c>
@@ -8784,8 +11837,14 @@
       <c r="C260" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" s="19" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E260" s="19" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="18" t="s">
         <v>600</v>
       </c>
@@ -8795,8 +11854,14 @@
       <c r="C261" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E261" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="18" t="s">
         <v>601</v>
       </c>
@@ -8806,8 +11871,14 @@
       <c r="C262" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E262" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="18" t="s">
         <v>602</v>
       </c>
@@ -8817,8 +11888,14 @@
       <c r="C263" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" s="20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E263" s="20" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="18" t="s">
         <v>603</v>
       </c>
@@ -8828,8 +11905,14 @@
       <c r="C264" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E264" s="19" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="18" t="s">
         <v>604</v>
       </c>
@@ -8839,8 +11922,14 @@
       <c r="C265" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E265" s="20" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="18" t="s">
         <v>605</v>
       </c>
@@ -8850,8 +11939,14 @@
       <c r="C266" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E266" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="18" t="s">
         <v>606</v>
       </c>
@@ -8861,8 +11956,14 @@
       <c r="C267" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E267" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="18" t="s">
         <v>607</v>
       </c>
@@ -8872,8 +11973,14 @@
       <c r="C268" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E268" s="19" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="18" t="s">
         <v>608</v>
       </c>
@@ -8883,8 +11990,14 @@
       <c r="C269" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" s="20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E269" s="20" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="18" t="s">
         <v>609</v>
       </c>
@@ -8894,8 +12007,14 @@
       <c r="C270" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E270" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="18" t="s">
         <v>610</v>
       </c>
@@ -8905,8 +12024,14 @@
       <c r="C271" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" s="20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="18" t="s">
         <v>611</v>
       </c>
@@ -8916,8 +12041,14 @@
       <c r="C272" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E272" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="18" t="s">
         <v>612</v>
       </c>
@@ -8927,8 +12058,14 @@
       <c r="C273" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E273" s="20" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="18" t="s">
         <v>613</v>
       </c>
@@ -8938,8 +12075,14 @@
       <c r="C274" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" s="19" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E274" s="19" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="18" t="s">
         <v>614</v>
       </c>
@@ -8949,8 +12092,14 @@
       <c r="C275" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E275" s="20" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="18" t="s">
         <v>615</v>
       </c>
@@ -8960,8 +12109,14 @@
       <c r="C276" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" s="19" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E276" s="19" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="18" t="s">
         <v>616</v>
       </c>
@@ -8971,8 +12126,14 @@
       <c r="C277" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" s="20" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="18" t="s">
         <v>617</v>
       </c>
@@ -8982,8 +12143,14 @@
       <c r="C278" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E278" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="18" t="s">
         <v>618</v>
       </c>
@@ -8993,8 +12160,14 @@
       <c r="C279" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="20" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E279" s="20" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="18" t="s">
         <v>619</v>
       </c>
@@ -9004,8 +12177,14 @@
       <c r="C280" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" s="19" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E280" s="19" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="s">
         <v>620</v>
       </c>
@@ -9015,8 +12194,14 @@
       <c r="C281" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" s="20" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="18" t="s">
         <v>621</v>
       </c>
@@ -9026,8 +12211,14 @@
       <c r="C282" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E282" s="19" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="18" t="s">
         <v>622</v>
       </c>
@@ -9037,8 +12228,14 @@
       <c r="C283" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E283" s="20" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="18" t="s">
         <v>623</v>
       </c>
@@ -9048,8 +12245,14 @@
       <c r="C284" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" s="19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E284" s="19" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="18" t="s">
         <v>624</v>
       </c>
@@ -9059,8 +12262,14 @@
       <c r="C285" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="20" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E285" s="20" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="18" t="s">
         <v>626</v>
       </c>
@@ -9070,8 +12279,14 @@
       <c r="C286" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" s="19" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E286" s="19" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="18" t="s">
         <v>627</v>
       </c>
@@ -9081,8 +12296,14 @@
       <c r="C287" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" s="20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E287" s="20" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="18" t="s">
         <v>628</v>
       </c>
@@ -9091,6 +12312,12 @@
       </c>
       <c r="C288" s="18" t="s">
         <v>305</v>
+      </c>
+      <c r="D288" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E288" s="19" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -9100,8 +12327,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9110,8 +12338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F6815F-8606-46E9-A0EC-3CFB50245FDC}">
   <dimension ref="A1:AC2050"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Java/BGTransport/src/main/resources/excel/list/pullman_stop_list.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/list/pullman_stop_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2a8a40ee8ef1bb/Desktop/BGTransport/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86d5980519d90a03/Desktop/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC51658B-9592-4A72-B266-D0B899087230}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61834413-D66E-46BD-A566-A84E065250BE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
   </bookViews>
   <sheets>
     <sheet name="Fermate" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1118">
   <si>
     <t>piazza Libertà</t>
   </si>
@@ -5662,6 +5662,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 9.698755265585403</t>
+  </si>
+  <si>
+    <t>45.702594</t>
+  </si>
+  <si>
+    <t>45.665912</t>
   </si>
 </sst>
 </file>
@@ -5863,20 +5869,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7415,8 +7421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBE9082-5BDB-432F-A5D2-191D3DF93D3F}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7424,8 +7430,8 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7455,8 +7461,8 @@
       <c r="C2" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D2" s="22">
-        <v>45665912</v>
+      <c r="D2" s="23" t="s">
+        <v>1117</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>1112</v>
@@ -7472,8 +7478,8 @@
       <c r="C3" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="22">
-        <v>45665912</v>
+      <c r="D3" s="23" t="s">
+        <v>1117</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>1112</v>
@@ -7829,10 +7835,10 @@
       <c r="C24" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D24" s="23">
-        <v>45702594</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="D24" s="24" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>1113</v>
       </c>
     </row>

--- a/Java/BGTransport/src/main/resources/excel/list/pullman_stop_list.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/list/pullman_stop_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86d5980519d90a03/Desktop/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2a8a40ee8ef1bb/Desktop/BGLocalTransport/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61834413-D66E-46BD-A566-A84E065250BE}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25EC4E36-CAED-49E9-9BD6-B65DEC772EC0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
   </bookViews>
   <sheets>
     <sheet name="Fermate" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="1122">
   <si>
     <t>piazza Libertà</t>
   </si>
@@ -3945,9 +3945,6 @@
     <t>TORRE DE ROVERI via Papa Giovanni XXIII</t>
   </si>
   <si>
-    <t>TORRE DEL GALGARIO SOLO PER TABELLE DI M</t>
-  </si>
-  <si>
     <t>TREVIOLO Albegno via IV Novembre 6</t>
   </si>
   <si>
@@ -5076,9 +5073,6 @@
     <t>9.730127</t>
   </si>
   <si>
-    <t>45.7056577</t>
-  </si>
-  <si>
     <t>45.706887</t>
   </si>
   <si>
@@ -5668,13 +5662,31 @@
   </si>
   <si>
     <t>45.665912</t>
+  </si>
+  <si>
+    <t>45.705682</t>
+  </si>
+  <si>
+    <t>9.724453</t>
+  </si>
+  <si>
+    <t>TORRE DEL GALGARIO via Suardi, 4</t>
+  </si>
+  <si>
+    <t>45.701510</t>
+  </si>
+  <si>
+    <t>9.680467</t>
+  </si>
+  <si>
+    <t>9.658735</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5706,6 +5718,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5813,7 +5833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5885,6 +5905,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6910,6 +6931,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7419,10 +7444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBE9082-5BDB-432F-A5D2-191D3DF93D3F}">
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7434,24 +7459,24 @@
     <col min="5" max="5" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>303</v>
       </c>
@@ -7462,13 +7487,13 @@
         <v>305</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>306</v>
       </c>
@@ -7479,13 +7504,13 @@
         <v>305</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>307</v>
       </c>
@@ -7496,13 +7521,13 @@
         <v>305</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>309</v>
       </c>
@@ -7513,13 +7538,13 @@
         <v>305</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>310</v>
       </c>
@@ -7530,13 +7555,14 @@
         <v>305</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>311</v>
       </c>
@@ -7547,13 +7573,13 @@
         <v>305</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>312</v>
       </c>
@@ -7564,13 +7590,13 @@
         <v>305</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>313</v>
       </c>
@@ -7581,13 +7607,13 @@
         <v>305</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>314</v>
       </c>
@@ -7598,13 +7624,13 @@
         <v>305</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>316</v>
       </c>
@@ -7615,13 +7641,13 @@
         <v>305</v>
       </c>
       <c r="D11" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>317</v>
       </c>
@@ -7632,13 +7658,13 @@
         <v>305</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>318</v>
       </c>
@@ -7649,13 +7675,13 @@
         <v>305</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>652</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>320</v>
       </c>
@@ -7666,13 +7692,13 @@
         <v>305</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>322</v>
       </c>
@@ -7683,13 +7709,13 @@
         <v>305</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>323</v>
       </c>
@@ -7700,10 +7726,10 @@
         <v>305</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>654</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7717,10 +7743,10 @@
         <v>305</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>654</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7734,10 +7760,10 @@
         <v>305</v>
       </c>
       <c r="D18" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>656</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7751,10 +7777,10 @@
         <v>305</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>656</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7768,10 +7794,10 @@
         <v>305</v>
       </c>
       <c r="D20" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>656</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7785,10 +7811,10 @@
         <v>305</v>
       </c>
       <c r="D21" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>656</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7802,10 +7828,10 @@
         <v>305</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>656</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7819,10 +7845,10 @@
         <v>305</v>
       </c>
       <c r="D23" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>656</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7836,10 +7862,10 @@
         <v>305</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7853,10 +7879,10 @@
         <v>305</v>
       </c>
       <c r="D25" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>658</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7870,10 +7896,10 @@
         <v>305</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>660</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7887,10 +7913,10 @@
         <v>305</v>
       </c>
       <c r="D27" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>662</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7904,10 +7930,10 @@
         <v>305</v>
       </c>
       <c r="D28" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>664</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7921,10 +7947,10 @@
         <v>305</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>666</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7938,10 +7964,10 @@
         <v>305</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>668</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7955,10 +7981,10 @@
         <v>305</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>670</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7972,10 +7998,10 @@
         <v>305</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>672</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -7989,10 +8015,10 @@
         <v>305</v>
       </c>
       <c r="D33" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8006,10 +8032,10 @@
         <v>305</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>676</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8023,10 +8049,10 @@
         <v>305</v>
       </c>
       <c r="D35" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>678</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8040,10 +8066,10 @@
         <v>305</v>
       </c>
       <c r="D36" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>680</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8057,10 +8083,10 @@
         <v>305</v>
       </c>
       <c r="D37" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>682</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8074,10 +8100,10 @@
         <v>305</v>
       </c>
       <c r="D38" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>684</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8091,10 +8117,10 @@
         <v>305</v>
       </c>
       <c r="D39" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>686</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8108,10 +8134,10 @@
         <v>305</v>
       </c>
       <c r="D40" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>688</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8125,10 +8151,10 @@
         <v>305</v>
       </c>
       <c r="D41" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>690</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8142,10 +8168,10 @@
         <v>305</v>
       </c>
       <c r="D42" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>690</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8159,10 +8185,10 @@
         <v>305</v>
       </c>
       <c r="D43" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>692</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8176,10 +8202,10 @@
         <v>305</v>
       </c>
       <c r="D44" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>694</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8193,10 +8219,10 @@
         <v>305</v>
       </c>
       <c r="D45" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>696</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8210,10 +8236,10 @@
         <v>305</v>
       </c>
       <c r="D46" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>698</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8227,10 +8253,10 @@
         <v>305</v>
       </c>
       <c r="D47" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="E47" s="20" t="s">
         <v>700</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8244,10 +8270,10 @@
         <v>305</v>
       </c>
       <c r="D48" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>702</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8261,10 +8287,10 @@
         <v>305</v>
       </c>
       <c r="D49" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="E49" s="20" t="s">
         <v>704</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8278,10 +8304,10 @@
         <v>305</v>
       </c>
       <c r="D50" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>706</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8295,10 +8321,10 @@
         <v>305</v>
       </c>
       <c r="D51" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>708</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8312,10 +8338,10 @@
         <v>305</v>
       </c>
       <c r="D52" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>710</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8329,10 +8355,10 @@
         <v>305</v>
       </c>
       <c r="D53" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>712</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8346,10 +8372,10 @@
         <v>305</v>
       </c>
       <c r="D54" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>714</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8363,10 +8389,10 @@
         <v>305</v>
       </c>
       <c r="D55" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="E55" s="20" t="s">
         <v>716</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8380,10 +8406,10 @@
         <v>305</v>
       </c>
       <c r="D56" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>718</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8397,10 +8423,10 @@
         <v>305</v>
       </c>
       <c r="D57" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>720</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8414,10 +8440,10 @@
         <v>305</v>
       </c>
       <c r="D58" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>722</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8431,10 +8457,10 @@
         <v>305</v>
       </c>
       <c r="D59" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>718</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8448,10 +8474,10 @@
         <v>305</v>
       </c>
       <c r="D60" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>724</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8465,10 +8491,10 @@
         <v>305</v>
       </c>
       <c r="D61" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>726</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8482,10 +8508,10 @@
         <v>305</v>
       </c>
       <c r="D62" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>728</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8499,10 +8525,10 @@
         <v>305</v>
       </c>
       <c r="D63" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="E63" s="20" t="s">
         <v>730</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8516,10 +8542,10 @@
         <v>305</v>
       </c>
       <c r="D64" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>732</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8533,10 +8559,10 @@
         <v>305</v>
       </c>
       <c r="D65" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="E65" s="20" t="s">
         <v>734</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8550,10 +8576,10 @@
         <v>305</v>
       </c>
       <c r="D66" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>736</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8567,10 +8593,10 @@
         <v>305</v>
       </c>
       <c r="D67" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="E67" s="20" t="s">
         <v>738</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8584,10 +8610,10 @@
         <v>305</v>
       </c>
       <c r="D68" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>740</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8601,10 +8627,10 @@
         <v>305</v>
       </c>
       <c r="D69" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="E69" s="20" t="s">
         <v>742</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8618,10 +8644,10 @@
         <v>305</v>
       </c>
       <c r="D70" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>744</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8635,10 +8661,10 @@
         <v>305</v>
       </c>
       <c r="D71" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="E71" s="20" t="s">
         <v>746</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8652,10 +8678,10 @@
         <v>305</v>
       </c>
       <c r="D72" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>748</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8669,10 +8695,10 @@
         <v>305</v>
       </c>
       <c r="D73" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>750</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8686,10 +8712,10 @@
         <v>305</v>
       </c>
       <c r="D74" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>752</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8703,10 +8729,10 @@
         <v>305</v>
       </c>
       <c r="D75" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>754</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8720,10 +8746,10 @@
         <v>305</v>
       </c>
       <c r="D76" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>756</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8737,10 +8763,10 @@
         <v>305</v>
       </c>
       <c r="D77" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="E77" s="20" t="s">
         <v>758</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8754,10 +8780,10 @@
         <v>305</v>
       </c>
       <c r="D78" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>760</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8771,10 +8797,10 @@
         <v>305</v>
       </c>
       <c r="D79" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="E79" s="20" t="s">
         <v>762</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8788,10 +8814,10 @@
         <v>305</v>
       </c>
       <c r="D80" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="E80" s="19" t="s">
         <v>764</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8805,10 +8831,10 @@
         <v>305</v>
       </c>
       <c r="D81" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="E81" s="20" t="s">
         <v>762</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -8822,10 +8848,10 @@
         <v>305</v>
       </c>
       <c r="D82" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="E82" s="19" t="s">
         <v>766</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -8839,10 +8865,10 @@
         <v>305</v>
       </c>
       <c r="D83" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="E83" s="20" t="s">
         <v>768</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -8856,10 +8882,10 @@
         <v>305</v>
       </c>
       <c r="D84" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="E84" s="19" t="s">
         <v>770</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -8873,10 +8899,10 @@
         <v>305</v>
       </c>
       <c r="D85" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="E85" s="20" t="s">
         <v>772</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -8890,10 +8916,10 @@
         <v>305</v>
       </c>
       <c r="D86" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E86" s="19" t="s">
         <v>774</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -8907,10 +8933,10 @@
         <v>305</v>
       </c>
       <c r="D87" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E87" s="20" t="s">
         <v>776</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -8924,10 +8950,10 @@
         <v>305</v>
       </c>
       <c r="D88" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>778</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -8941,10 +8967,10 @@
         <v>305</v>
       </c>
       <c r="D89" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="E89" s="20" t="s">
         <v>780</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -8958,10 +8984,10 @@
         <v>305</v>
       </c>
       <c r="D90" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="E90" s="19" t="s">
         <v>782</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -8975,10 +9001,10 @@
         <v>305</v>
       </c>
       <c r="D91" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="E91" s="20" t="s">
         <v>784</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -8992,10 +9018,10 @@
         <v>305</v>
       </c>
       <c r="D92" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>786</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9009,10 +9035,10 @@
         <v>305</v>
       </c>
       <c r="D93" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E93" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9026,10 +9052,10 @@
         <v>305</v>
       </c>
       <c r="D94" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>788</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9043,10 +9069,10 @@
         <v>305</v>
       </c>
       <c r="D95" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="E95" s="20" t="s">
         <v>790</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9060,10 +9086,10 @@
         <v>305</v>
       </c>
       <c r="D96" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>792</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9077,10 +9103,10 @@
         <v>305</v>
       </c>
       <c r="D97" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="E97" s="20" t="s">
         <v>794</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9094,10 +9120,10 @@
         <v>305</v>
       </c>
       <c r="D98" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="E98" s="19" t="s">
         <v>796</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9111,10 +9137,10 @@
         <v>305</v>
       </c>
       <c r="D99" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="E99" s="20" t="s">
         <v>798</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9128,10 +9154,10 @@
         <v>305</v>
       </c>
       <c r="D100" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="E100" s="19" t="s">
         <v>800</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -9145,10 +9171,10 @@
         <v>305</v>
       </c>
       <c r="D101" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="E101" s="20" t="s">
         <v>802</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -9162,10 +9188,10 @@
         <v>305</v>
       </c>
       <c r="D102" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="E102" s="19" t="s">
         <v>804</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9179,10 +9205,10 @@
         <v>305</v>
       </c>
       <c r="D103" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="E103" s="20" t="s">
         <v>806</v>
-      </c>
-      <c r="E103" s="20" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -9196,10 +9222,10 @@
         <v>305</v>
       </c>
       <c r="D104" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="E104" s="19" t="s">
         <v>808</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -9213,10 +9239,10 @@
         <v>305</v>
       </c>
       <c r="D105" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="E105" s="20" t="s">
         <v>810</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9230,10 +9256,10 @@
         <v>305</v>
       </c>
       <c r="D106" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="E106" s="19" t="s">
         <v>812</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9247,10 +9273,10 @@
         <v>305</v>
       </c>
       <c r="D107" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="E107" s="20" t="s">
         <v>814</v>
-      </c>
-      <c r="E107" s="20" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -9264,10 +9290,10 @@
         <v>305</v>
       </c>
       <c r="D108" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="E108" s="19" t="s">
         <v>816</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9281,10 +9307,10 @@
         <v>305</v>
       </c>
       <c r="D109" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="E109" s="20" t="s">
         <v>818</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9298,10 +9324,10 @@
         <v>305</v>
       </c>
       <c r="D110" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="E110" s="19" t="s">
         <v>820</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9315,10 +9341,10 @@
         <v>305</v>
       </c>
       <c r="D111" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="E111" s="20" t="s">
         <v>822</v>
-      </c>
-      <c r="E111" s="20" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9332,10 +9358,10 @@
         <v>305</v>
       </c>
       <c r="D112" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="E112" s="19" t="s">
         <v>824</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9349,10 +9375,10 @@
         <v>305</v>
       </c>
       <c r="D113" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="E113" s="20" t="s">
         <v>824</v>
-      </c>
-      <c r="E113" s="20" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9366,10 +9392,10 @@
         <v>305</v>
       </c>
       <c r="D114" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="E114" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9383,10 +9409,10 @@
         <v>305</v>
       </c>
       <c r="D115" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E115" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="E115" s="20" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9400,10 +9426,10 @@
         <v>305</v>
       </c>
       <c r="D116" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="E116" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9417,10 +9443,10 @@
         <v>305</v>
       </c>
       <c r="D117" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="E117" s="20" t="s">
         <v>830</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9434,10 +9460,10 @@
         <v>305</v>
       </c>
       <c r="D118" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="E118" s="19" t="s">
         <v>832</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9451,10 +9477,10 @@
         <v>305</v>
       </c>
       <c r="D119" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="E119" s="20" t="s">
         <v>834</v>
-      </c>
-      <c r="E119" s="20" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9468,10 +9494,10 @@
         <v>305</v>
       </c>
       <c r="D120" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="E120" s="19" t="s">
         <v>836</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9485,10 +9511,10 @@
         <v>305</v>
       </c>
       <c r="D121" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="E121" s="20" t="s">
         <v>838</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -9502,10 +9528,10 @@
         <v>305</v>
       </c>
       <c r="D122" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="E122" s="19" t="s">
         <v>840</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9519,10 +9545,10 @@
         <v>305</v>
       </c>
       <c r="D123" s="20" t="s">
+        <v>841</v>
+      </c>
+      <c r="E123" s="20" t="s">
         <v>842</v>
-      </c>
-      <c r="E123" s="20" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9536,10 +9562,10 @@
         <v>305</v>
       </c>
       <c r="D124" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="E124" s="19" t="s">
         <v>844</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9553,10 +9579,10 @@
         <v>305</v>
       </c>
       <c r="D125" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="E125" s="20" t="s">
         <v>846</v>
-      </c>
-      <c r="E125" s="20" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9570,10 +9596,10 @@
         <v>305</v>
       </c>
       <c r="D126" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>848</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9587,10 +9613,10 @@
         <v>305</v>
       </c>
       <c r="D127" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="E127" s="20" t="s">
         <v>850</v>
-      </c>
-      <c r="E127" s="20" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9604,10 +9630,10 @@
         <v>305</v>
       </c>
       <c r="D128" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>852</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9621,10 +9647,10 @@
         <v>305</v>
       </c>
       <c r="D129" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="E129" s="20" t="s">
         <v>854</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9638,10 +9664,10 @@
         <v>305</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9655,10 +9681,10 @@
         <v>305</v>
       </c>
       <c r="D131" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="E131" s="20" t="s">
         <v>856</v>
-      </c>
-      <c r="E131" s="20" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9672,10 +9698,10 @@
         <v>305</v>
       </c>
       <c r="D132" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>858</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9689,10 +9715,10 @@
         <v>305</v>
       </c>
       <c r="D133" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="E133" s="20" t="s">
         <v>860</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9706,10 +9732,10 @@
         <v>305</v>
       </c>
       <c r="D134" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="E134" s="19" t="s">
         <v>862</v>
-      </c>
-      <c r="E134" s="19" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9723,10 +9749,10 @@
         <v>305</v>
       </c>
       <c r="D135" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="E135" s="20" t="s">
         <v>864</v>
-      </c>
-      <c r="E135" s="20" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -9740,10 +9766,10 @@
         <v>305</v>
       </c>
       <c r="D136" s="19" t="s">
+        <v>865</v>
+      </c>
+      <c r="E136" s="19" t="s">
         <v>866</v>
-      </c>
-      <c r="E136" s="19" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -9757,10 +9783,10 @@
         <v>305</v>
       </c>
       <c r="D137" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="E137" s="20" t="s">
         <v>866</v>
-      </c>
-      <c r="E137" s="20" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -9774,10 +9800,10 @@
         <v>305</v>
       </c>
       <c r="D138" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="E138" s="19" t="s">
         <v>868</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -9791,10 +9817,10 @@
         <v>305</v>
       </c>
       <c r="D139" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="E139" s="20" t="s">
         <v>870</v>
-      </c>
-      <c r="E139" s="20" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -9808,10 +9834,10 @@
         <v>305</v>
       </c>
       <c r="D140" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="E140" s="19" t="s">
         <v>872</v>
-      </c>
-      <c r="E140" s="19" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -9825,10 +9851,10 @@
         <v>305</v>
       </c>
       <c r="D141" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="E141" s="20" t="s">
         <v>874</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -9842,10 +9868,10 @@
         <v>305</v>
       </c>
       <c r="D142" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="E142" s="19" t="s">
         <v>876</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -9859,10 +9885,10 @@
         <v>305</v>
       </c>
       <c r="D143" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="E143" s="20" t="s">
         <v>878</v>
-      </c>
-      <c r="E143" s="20" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -9876,10 +9902,10 @@
         <v>305</v>
       </c>
       <c r="D144" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="E144" s="19" t="s">
         <v>880</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -9893,10 +9919,10 @@
         <v>305</v>
       </c>
       <c r="D145" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="E145" s="20" t="s">
         <v>882</v>
-      </c>
-      <c r="E145" s="20" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -9910,10 +9936,10 @@
         <v>305</v>
       </c>
       <c r="D146" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="E146" s="19" t="s">
         <v>884</v>
-      </c>
-      <c r="E146" s="19" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -9927,10 +9953,10 @@
         <v>305</v>
       </c>
       <c r="D147" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="E147" s="20" t="s">
         <v>786</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -9944,10 +9970,10 @@
         <v>305</v>
       </c>
       <c r="D148" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="E148" s="19" t="s">
         <v>886</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -9961,10 +9987,10 @@
         <v>305</v>
       </c>
       <c r="D149" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="E149" s="20" t="s">
         <v>888</v>
-      </c>
-      <c r="E149" s="20" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -9978,10 +10004,10 @@
         <v>305</v>
       </c>
       <c r="D150" s="19" t="s">
+        <v>889</v>
+      </c>
+      <c r="E150" s="19" t="s">
         <v>890</v>
-      </c>
-      <c r="E150" s="19" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -9995,10 +10021,10 @@
         <v>305</v>
       </c>
       <c r="D151" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="E151" s="20" t="s">
         <v>892</v>
-      </c>
-      <c r="E151" s="20" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10012,10 +10038,10 @@
         <v>305</v>
       </c>
       <c r="D152" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="E152" s="19" t="s">
         <v>894</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -10029,10 +10055,10 @@
         <v>305</v>
       </c>
       <c r="D153" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="E153" s="20" t="s">
         <v>896</v>
-      </c>
-      <c r="E153" s="20" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10046,10 +10072,10 @@
         <v>305</v>
       </c>
       <c r="D154" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="E154" s="19" t="s">
         <v>898</v>
-      </c>
-      <c r="E154" s="19" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10063,10 +10089,10 @@
         <v>305</v>
       </c>
       <c r="D155" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="E155" s="20" t="s">
         <v>900</v>
-      </c>
-      <c r="E155" s="20" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -10080,10 +10106,10 @@
         <v>305</v>
       </c>
       <c r="D156" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="E156" s="19" t="s">
         <v>902</v>
-      </c>
-      <c r="E156" s="19" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -10097,10 +10123,10 @@
         <v>305</v>
       </c>
       <c r="D157" s="20" t="s">
+        <v>903</v>
+      </c>
+      <c r="E157" s="20" t="s">
         <v>904</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -10114,10 +10140,10 @@
         <v>305</v>
       </c>
       <c r="D158" s="19" t="s">
+        <v>905</v>
+      </c>
+      <c r="E158" s="19" t="s">
         <v>906</v>
-      </c>
-      <c r="E158" s="19" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -10131,10 +10157,10 @@
         <v>305</v>
       </c>
       <c r="D159" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="E159" s="20" t="s">
         <v>908</v>
-      </c>
-      <c r="E159" s="20" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -10148,10 +10174,10 @@
         <v>305</v>
       </c>
       <c r="D160" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="E160" s="19" t="s">
         <v>910</v>
-      </c>
-      <c r="E160" s="19" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -10165,10 +10191,10 @@
         <v>305</v>
       </c>
       <c r="D161" s="20" t="s">
+        <v>911</v>
+      </c>
+      <c r="E161" s="20" t="s">
         <v>912</v>
-      </c>
-      <c r="E161" s="20" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -10182,10 +10208,10 @@
         <v>305</v>
       </c>
       <c r="D162" s="19" t="s">
+        <v>913</v>
+      </c>
+      <c r="E162" s="19" t="s">
         <v>914</v>
-      </c>
-      <c r="E162" s="19" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10199,10 +10225,10 @@
         <v>305</v>
       </c>
       <c r="D163" s="20" t="s">
+        <v>915</v>
+      </c>
+      <c r="E163" s="20" t="s">
         <v>916</v>
-      </c>
-      <c r="E163" s="20" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10216,10 +10242,10 @@
         <v>305</v>
       </c>
       <c r="D164" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="E164" s="19" t="s">
         <v>918</v>
-      </c>
-      <c r="E164" s="19" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10233,10 +10259,10 @@
         <v>305</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>305</v>
+        <v>1116</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>920</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10250,10 +10276,10 @@
         <v>305</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E166" s="19" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10267,10 +10293,10 @@
         <v>305</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -10284,10 +10310,10 @@
         <v>305</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E168" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10301,10 +10327,10 @@
         <v>305</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E169" s="20" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10318,10 +10344,10 @@
         <v>305</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10335,10 +10361,10 @@
         <v>305</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10352,10 +10378,10 @@
         <v>305</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -10369,10 +10395,10 @@
         <v>305</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -10386,10 +10412,10 @@
         <v>305</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E174" s="19" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -10403,10 +10429,10 @@
         <v>305</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -10420,10 +10446,10 @@
         <v>305</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -10437,10 +10463,10 @@
         <v>305</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -10454,10 +10480,10 @@
         <v>305</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E178" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -10471,10 +10497,10 @@
         <v>305</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E179" s="20" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -10488,10 +10514,10 @@
         <v>305</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E180" s="19" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -10505,10 +10531,10 @@
         <v>305</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E181" s="20" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -10522,10 +10548,10 @@
         <v>305</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E182" s="19" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -10539,10 +10565,10 @@
         <v>305</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -10556,10 +10582,10 @@
         <v>305</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E184" s="19" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -10573,10 +10599,10 @@
         <v>305</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -10590,10 +10616,10 @@
         <v>305</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E186" s="19" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -10607,10 +10633,10 @@
         <v>305</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E187" s="20" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -10624,10 +10650,10 @@
         <v>305</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -10641,10 +10667,10 @@
         <v>305</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E189" s="20" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -10658,10 +10684,10 @@
         <v>305</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E190" s="19" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -10675,10 +10701,10 @@
         <v>305</v>
       </c>
       <c r="D191" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E191" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="E191" s="20" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -10692,10 +10718,10 @@
         <v>305</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E192" s="19" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -10709,10 +10735,10 @@
         <v>305</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E193" s="20" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -10726,10 +10752,10 @@
         <v>305</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E194" s="19" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -10743,10 +10769,10 @@
         <v>305</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>305</v>
+        <v>965</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>967</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -10760,10 +10786,10 @@
         <v>305</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E196" s="19" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -10777,10 +10803,10 @@
         <v>305</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -10794,10 +10820,10 @@
         <v>305</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E198" s="19" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -10811,10 +10837,10 @@
         <v>305</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E199" s="20" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -10828,10 +10854,10 @@
         <v>305</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E200" s="19" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -10845,10 +10871,10 @@
         <v>305</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E201" s="20" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -10862,10 +10888,10 @@
         <v>305</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E202" s="19" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -10879,10 +10905,10 @@
         <v>305</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E203" s="20" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -10896,10 +10922,10 @@
         <v>305</v>
       </c>
       <c r="D204" s="19" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E204" s="19" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -10913,15 +10939,15 @@
         <v>305</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E205" s="20" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
-        <v>543</v>
+        <v>1118</v>
       </c>
       <c r="B206" s="18" t="s">
         <v>304</v>
@@ -10929,97 +10955,101 @@
       <c r="C206" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
+      <c r="D206" s="19" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E206" s="19" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="B207" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="B207" s="18" t="s">
-        <v>545</v>
-      </c>
       <c r="C207" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E207" s="20" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C208" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E208" s="19" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E209" s="20" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E210" s="19" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E211" s="20" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B212" s="18" t="s">
         <v>304</v>
@@ -11028,15 +11058,15 @@
         <v>305</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E212" s="19" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B213" s="18" t="s">
         <v>304</v>
@@ -11045,168 +11075,168 @@
         <v>305</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E213" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="B214" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="B214" s="18" t="s">
-        <v>553</v>
-      </c>
       <c r="C214" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E214" s="19" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C215" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E215" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C216" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E216" s="19" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C217" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E217" s="20" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C218" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E218" s="19" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C219" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E219" s="20" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C220" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E220" s="19" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C221" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E221" s="20" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B222" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C222" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D222" s="19" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E222" s="19" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B223" s="18" t="s">
         <v>304</v>
@@ -11215,15 +11245,15 @@
         <v>305</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E223" s="20" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B224" s="18" t="s">
         <v>304</v>
@@ -11232,15 +11262,15 @@
         <v>305</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E224" s="19" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B225" s="18" t="s">
         <v>304</v>
@@ -11249,15 +11279,15 @@
         <v>305</v>
       </c>
       <c r="D225" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E225" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="E225" s="20" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B226" s="18" t="s">
         <v>304</v>
@@ -11266,15 +11296,15 @@
         <v>305</v>
       </c>
       <c r="D226" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E226" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E226" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B227" s="18" t="s">
         <v>353</v>
@@ -11283,15 +11313,15 @@
         <v>305</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E227" s="20" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B228" s="18" t="s">
         <v>304</v>
@@ -11300,15 +11330,15 @@
         <v>305</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B229" s="18" t="s">
         <v>304</v>
@@ -11317,15 +11347,15 @@
         <v>305</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E229" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B230" s="18" t="s">
         <v>304</v>
@@ -11334,15 +11364,15 @@
         <v>305</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E230" s="19" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B231" s="18" t="s">
         <v>304</v>
@@ -11351,15 +11381,15 @@
         <v>305</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E231" s="20" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B232" s="18" t="s">
         <v>304</v>
@@ -11368,15 +11398,15 @@
         <v>305</v>
       </c>
       <c r="D232" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E232" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E232" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B233" s="18" t="s">
         <v>304</v>
@@ -11385,15 +11415,15 @@
         <v>305</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E233" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B234" s="18" t="s">
         <v>304</v>
@@ -11402,15 +11432,15 @@
         <v>305</v>
       </c>
       <c r="D234" s="19" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E234" s="19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B235" s="18" t="s">
         <v>304</v>
@@ -11419,15 +11449,15 @@
         <v>305</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E235" s="20" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B236" s="18" t="s">
         <v>304</v>
@@ -11436,15 +11466,15 @@
         <v>305</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B237" s="18" t="s">
         <v>304</v>
@@ -11453,15 +11483,15 @@
         <v>305</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E237" s="20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B238" s="18" t="s">
         <v>304</v>
@@ -11470,15 +11500,15 @@
         <v>305</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B239" s="18" t="s">
         <v>304</v>
@@ -11487,15 +11517,15 @@
         <v>305</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E239" s="20" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B240" s="18" t="s">
         <v>304</v>
@@ -11504,15 +11534,15 @@
         <v>305</v>
       </c>
       <c r="D240" s="19" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E240" s="19" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B241" s="18" t="s">
         <v>304</v>
@@ -11521,15 +11551,15 @@
         <v>305</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E241" s="20" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B242" s="18" t="s">
         <v>304</v>
@@ -11538,15 +11568,15 @@
         <v>305</v>
       </c>
       <c r="D242" s="19" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E242" s="19" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B243" s="18" t="s">
         <v>304</v>
@@ -11555,15 +11585,15 @@
         <v>305</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E243" s="20" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B244" s="18" t="s">
         <v>304</v>
@@ -11572,15 +11602,15 @@
         <v>305</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B245" s="18" t="s">
         <v>304</v>
@@ -11589,15 +11619,15 @@
         <v>305</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E245" s="20" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B246" s="18" t="s">
         <v>304</v>
@@ -11606,15 +11636,15 @@
         <v>305</v>
       </c>
       <c r="D246" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E246" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E246" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B247" s="18" t="s">
         <v>304</v>
@@ -11623,15 +11653,15 @@
         <v>305</v>
       </c>
       <c r="D247" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E247" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="E247" s="20" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B248" s="18" t="s">
         <v>304</v>
@@ -11640,15 +11670,15 @@
         <v>305</v>
       </c>
       <c r="D248" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E248" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E248" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B249" s="18" t="s">
         <v>304</v>
@@ -11657,15 +11687,15 @@
         <v>305</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E249" s="20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B250" s="18" t="s">
         <v>304</v>
@@ -11674,15 +11704,15 @@
         <v>305</v>
       </c>
       <c r="D250" s="19" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E250" s="19" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B251" s="18" t="s">
         <v>304</v>
@@ -11691,15 +11721,15 @@
         <v>305</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E251" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B252" s="18" t="s">
         <v>304</v>
@@ -11708,15 +11738,15 @@
         <v>305</v>
       </c>
       <c r="D252" s="19" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E252" s="19" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B253" s="18" t="s">
         <v>304</v>
@@ -11725,15 +11755,15 @@
         <v>305</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E253" s="20" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B254" s="18" t="s">
         <v>304</v>
@@ -11742,15 +11772,15 @@
         <v>305</v>
       </c>
       <c r="D254" s="19" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E254" s="19" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B255" s="18" t="s">
         <v>304</v>
@@ -11759,15 +11789,15 @@
         <v>305</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E255" s="20" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B256" s="18" t="s">
         <v>304</v>
@@ -11776,15 +11806,15 @@
         <v>305</v>
       </c>
       <c r="D256" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E256" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E256" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B257" s="18" t="s">
         <v>304</v>
@@ -11793,15 +11823,15 @@
         <v>305</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E257" s="20" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B258" s="18" t="s">
         <v>304</v>
@@ -11810,15 +11840,15 @@
         <v>305</v>
       </c>
       <c r="D258" s="19" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E258" s="19" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B259" s="18" t="s">
         <v>304</v>
@@ -11827,15 +11857,15 @@
         <v>305</v>
       </c>
       <c r="D259" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E259" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="E259" s="20" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B260" s="18" t="s">
         <v>304</v>
@@ -11844,15 +11874,15 @@
         <v>305</v>
       </c>
       <c r="D260" s="19" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E260" s="19" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B261" s="18" t="s">
         <v>304</v>
@@ -11861,15 +11891,15 @@
         <v>305</v>
       </c>
       <c r="D261" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E261" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="E261" s="20" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B262" s="18" t="s">
         <v>304</v>
@@ -11878,15 +11908,15 @@
         <v>305</v>
       </c>
       <c r="D262" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E262" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E262" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B263" s="18" t="s">
         <v>304</v>
@@ -11895,15 +11925,15 @@
         <v>305</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E263" s="20" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B264" s="18" t="s">
         <v>304</v>
@@ -11912,15 +11942,15 @@
         <v>305</v>
       </c>
       <c r="D264" s="19" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E264" s="19" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B265" s="18" t="s">
         <v>304</v>
@@ -11929,15 +11959,15 @@
         <v>305</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E265" s="20" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B266" s="18" t="s">
         <v>304</v>
@@ -11946,15 +11976,15 @@
         <v>305</v>
       </c>
       <c r="D266" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E266" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E266" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B267" s="18" t="s">
         <v>304</v>
@@ -11963,15 +11993,15 @@
         <v>305</v>
       </c>
       <c r="D267" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E267" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="E267" s="20" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B268" s="18" t="s">
         <v>304</v>
@@ -11980,15 +12010,15 @@
         <v>305</v>
       </c>
       <c r="D268" s="19" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E268" s="19" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B269" s="18" t="s">
         <v>304</v>
@@ -11997,15 +12027,15 @@
         <v>305</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E269" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B270" s="18" t="s">
         <v>304</v>
@@ -12014,15 +12044,15 @@
         <v>305</v>
       </c>
       <c r="D270" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E270" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E270" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B271" s="18" t="s">
         <v>304</v>
@@ -12031,15 +12061,15 @@
         <v>305</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E271" s="20" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B272" s="18" t="s">
         <v>304</v>
@@ -12048,15 +12078,15 @@
         <v>305</v>
       </c>
       <c r="D272" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E272" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E272" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B273" s="18" t="s">
         <v>304</v>
@@ -12065,15 +12095,15 @@
         <v>305</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E273" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B274" s="18" t="s">
         <v>304</v>
@@ -12082,15 +12112,15 @@
         <v>305</v>
       </c>
       <c r="D274" s="19" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E274" s="19" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B275" s="18" t="s">
         <v>304</v>
@@ -12099,15 +12129,15 @@
         <v>305</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E275" s="20" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B276" s="18" t="s">
         <v>304</v>
@@ -12116,15 +12146,15 @@
         <v>305</v>
       </c>
       <c r="D276" s="19" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E276" s="19" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B277" s="18" t="s">
         <v>304</v>
@@ -12133,15 +12163,15 @@
         <v>305</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E277" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B278" s="18" t="s">
         <v>304</v>
@@ -12150,15 +12180,15 @@
         <v>305</v>
       </c>
       <c r="D278" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E278" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E278" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B279" s="18" t="s">
         <v>304</v>
@@ -12167,15 +12197,15 @@
         <v>305</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E279" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B280" s="18" t="s">
         <v>304</v>
@@ -12184,15 +12214,15 @@
         <v>305</v>
       </c>
       <c r="D280" s="19" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E280" s="19" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B281" s="18" t="s">
         <v>304</v>
@@ -12201,15 +12231,15 @@
         <v>305</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E281" s="20" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B282" s="18" t="s">
         <v>304</v>
@@ -12218,15 +12248,15 @@
         <v>305</v>
       </c>
       <c r="D282" s="19" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E282" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B283" s="18" t="s">
         <v>304</v>
@@ -12235,15 +12265,15 @@
         <v>305</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E283" s="20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B284" s="18" t="s">
         <v>343</v>
@@ -12252,66 +12282,66 @@
         <v>305</v>
       </c>
       <c r="D284" s="19" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E284" s="19" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="B285" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="B285" s="18" t="s">
-        <v>625</v>
-      </c>
       <c r="C285" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E285" s="20" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C286" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D286" s="19" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E286" s="19" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C287" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E287" s="20" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B288" s="18" t="s">
         <v>304</v>
@@ -12320,10 +12350,10 @@
         <v>305</v>
       </c>
       <c r="D288" s="19" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E288" s="19" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">

--- a/Java/BGTransport/src/main/resources/excel/list/pullman_stop_list.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/list/pullman_stop_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2a8a40ee8ef1bb/Desktop/BGLocalTransport/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86d5980519d90a03/Desktop/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25EC4E36-CAED-49E9-9BD6-B65DEC772EC0}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8897CFF9-961A-4CB8-839E-5B7D2C3D4662}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
   </bookViews>
   <sheets>
     <sheet name="Fermate" sheetId="2" r:id="rId1"/>
@@ -4140,9 +4140,6 @@
     <t>via Petrarca fr.12/14 Banca d Italia</t>
   </si>
   <si>
-    <t>via Presolana Centro per l impiego</t>
-  </si>
-  <si>
     <t>via Ruggeri da Stabello 1</t>
   </si>
   <si>
@@ -5680,6 +5677,9 @@
   </si>
   <si>
     <t>9.658735</t>
+  </si>
+  <si>
+    <t>via Presolana Centro per l'impiego</t>
   </si>
 </sst>
 </file>
@@ -6931,10 +6931,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7447,12 +7443,12 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
@@ -7461,19 +7457,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>631</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7487,10 +7483,10 @@
         <v>305</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7504,10 +7500,10 @@
         <v>305</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7521,10 +7517,10 @@
         <v>305</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>633</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7538,10 +7534,10 @@
         <v>305</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>635</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7555,10 +7551,10 @@
         <v>305</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>637</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>638</v>
       </c>
       <c r="H6" s="25"/>
     </row>
@@ -7573,10 +7569,10 @@
         <v>305</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>639</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7590,10 +7586,10 @@
         <v>305</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>641</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7607,10 +7603,10 @@
         <v>305</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>643</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7624,10 +7620,10 @@
         <v>305</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>645</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7641,10 +7637,10 @@
         <v>305</v>
       </c>
       <c r="D11" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>647</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7658,10 +7654,10 @@
         <v>305</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>649</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7675,10 +7671,10 @@
         <v>305</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>651</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7692,10 +7688,10 @@
         <v>305</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>653</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7709,10 +7705,10 @@
         <v>305</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>655</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7726,10 +7722,10 @@
         <v>305</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>653</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7743,10 +7739,10 @@
         <v>305</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>653</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7760,10 +7756,10 @@
         <v>305</v>
       </c>
       <c r="D18" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>655</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7777,10 +7773,10 @@
         <v>305</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>655</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7794,10 +7790,10 @@
         <v>305</v>
       </c>
       <c r="D20" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>655</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7811,10 +7807,10 @@
         <v>305</v>
       </c>
       <c r="D21" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>655</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7828,10 +7824,10 @@
         <v>305</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>655</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7845,10 +7841,10 @@
         <v>305</v>
       </c>
       <c r="D23" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>655</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7862,10 +7858,10 @@
         <v>305</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7879,10 +7875,10 @@
         <v>305</v>
       </c>
       <c r="D25" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>657</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7896,10 +7892,10 @@
         <v>305</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>659</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7913,10 +7909,10 @@
         <v>305</v>
       </c>
       <c r="D27" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>661</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7930,10 +7926,10 @@
         <v>305</v>
       </c>
       <c r="D28" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>663</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7947,10 +7943,10 @@
         <v>305</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>665</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7964,10 +7960,10 @@
         <v>305</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>667</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7981,10 +7977,10 @@
         <v>305</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>669</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7998,10 +7994,10 @@
         <v>305</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>671</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8015,10 +8011,10 @@
         <v>305</v>
       </c>
       <c r="D33" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8032,10 +8028,10 @@
         <v>305</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>675</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8049,10 +8045,10 @@
         <v>305</v>
       </c>
       <c r="D35" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>677</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8066,10 +8062,10 @@
         <v>305</v>
       </c>
       <c r="D36" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>679</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8083,10 +8079,10 @@
         <v>305</v>
       </c>
       <c r="D37" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>681</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8100,10 +8096,10 @@
         <v>305</v>
       </c>
       <c r="D38" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>683</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8117,10 +8113,10 @@
         <v>305</v>
       </c>
       <c r="D39" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>685</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8134,10 +8130,10 @@
         <v>305</v>
       </c>
       <c r="D40" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>687</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8151,10 +8147,10 @@
         <v>305</v>
       </c>
       <c r="D41" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>689</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8168,10 +8164,10 @@
         <v>305</v>
       </c>
       <c r="D42" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>689</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8185,10 +8181,10 @@
         <v>305</v>
       </c>
       <c r="D43" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>691</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8202,10 +8198,10 @@
         <v>305</v>
       </c>
       <c r="D44" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>693</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8219,10 +8215,10 @@
         <v>305</v>
       </c>
       <c r="D45" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>695</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8236,10 +8232,10 @@
         <v>305</v>
       </c>
       <c r="D46" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>697</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8253,10 +8249,10 @@
         <v>305</v>
       </c>
       <c r="D47" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="E47" s="20" t="s">
         <v>699</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8270,10 +8266,10 @@
         <v>305</v>
       </c>
       <c r="D48" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>701</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8287,10 +8283,10 @@
         <v>305</v>
       </c>
       <c r="D49" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="E49" s="20" t="s">
         <v>703</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8304,10 +8300,10 @@
         <v>305</v>
       </c>
       <c r="D50" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>705</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8321,10 +8317,10 @@
         <v>305</v>
       </c>
       <c r="D51" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>707</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8338,10 +8334,10 @@
         <v>305</v>
       </c>
       <c r="D52" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>709</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8355,10 +8351,10 @@
         <v>305</v>
       </c>
       <c r="D53" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>711</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8372,10 +8368,10 @@
         <v>305</v>
       </c>
       <c r="D54" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>713</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8389,10 +8385,10 @@
         <v>305</v>
       </c>
       <c r="D55" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="E55" s="20" t="s">
         <v>715</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8406,10 +8402,10 @@
         <v>305</v>
       </c>
       <c r="D56" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>717</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8423,10 +8419,10 @@
         <v>305</v>
       </c>
       <c r="D57" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>719</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8440,10 +8436,10 @@
         <v>305</v>
       </c>
       <c r="D58" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>721</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8457,10 +8453,10 @@
         <v>305</v>
       </c>
       <c r="D59" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>717</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8474,10 +8470,10 @@
         <v>305</v>
       </c>
       <c r="D60" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>723</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8491,10 +8487,10 @@
         <v>305</v>
       </c>
       <c r="D61" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>725</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8508,10 +8504,10 @@
         <v>305</v>
       </c>
       <c r="D62" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>727</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8525,10 +8521,10 @@
         <v>305</v>
       </c>
       <c r="D63" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="E63" s="20" t="s">
         <v>729</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8542,10 +8538,10 @@
         <v>305</v>
       </c>
       <c r="D64" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>731</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8559,10 +8555,10 @@
         <v>305</v>
       </c>
       <c r="D65" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="E65" s="20" t="s">
         <v>733</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8576,10 +8572,10 @@
         <v>305</v>
       </c>
       <c r="D66" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>735</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8593,10 +8589,10 @@
         <v>305</v>
       </c>
       <c r="D67" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="E67" s="20" t="s">
         <v>737</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8610,10 +8606,10 @@
         <v>305</v>
       </c>
       <c r="D68" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>739</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8627,10 +8623,10 @@
         <v>305</v>
       </c>
       <c r="D69" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="E69" s="20" t="s">
         <v>741</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8644,10 +8640,10 @@
         <v>305</v>
       </c>
       <c r="D70" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>743</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8661,10 +8657,10 @@
         <v>305</v>
       </c>
       <c r="D71" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="E71" s="20" t="s">
         <v>745</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8678,10 +8674,10 @@
         <v>305</v>
       </c>
       <c r="D72" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>747</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8695,10 +8691,10 @@
         <v>305</v>
       </c>
       <c r="D73" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>749</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8712,10 +8708,10 @@
         <v>305</v>
       </c>
       <c r="D74" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>751</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8729,10 +8725,10 @@
         <v>305</v>
       </c>
       <c r="D75" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>753</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8746,10 +8742,10 @@
         <v>305</v>
       </c>
       <c r="D76" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>755</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8763,10 +8759,10 @@
         <v>305</v>
       </c>
       <c r="D77" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="E77" s="20" t="s">
         <v>757</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8780,10 +8776,10 @@
         <v>305</v>
       </c>
       <c r="D78" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>759</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8797,10 +8793,10 @@
         <v>305</v>
       </c>
       <c r="D79" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="E79" s="20" t="s">
         <v>761</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8814,10 +8810,10 @@
         <v>305</v>
       </c>
       <c r="D80" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="E80" s="19" t="s">
         <v>763</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8831,10 +8827,10 @@
         <v>305</v>
       </c>
       <c r="D81" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="E81" s="20" t="s">
         <v>761</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -8848,10 +8844,10 @@
         <v>305</v>
       </c>
       <c r="D82" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="E82" s="19" t="s">
         <v>765</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -8865,10 +8861,10 @@
         <v>305</v>
       </c>
       <c r="D83" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="E83" s="20" t="s">
         <v>767</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -8882,10 +8878,10 @@
         <v>305</v>
       </c>
       <c r="D84" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="E84" s="19" t="s">
         <v>769</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -8899,10 +8895,10 @@
         <v>305</v>
       </c>
       <c r="D85" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="E85" s="20" t="s">
         <v>771</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -8916,10 +8912,10 @@
         <v>305</v>
       </c>
       <c r="D86" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="E86" s="19" t="s">
         <v>773</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -8933,10 +8929,10 @@
         <v>305</v>
       </c>
       <c r="D87" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="E87" s="20" t="s">
         <v>775</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -8950,10 +8946,10 @@
         <v>305</v>
       </c>
       <c r="D88" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>777</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -8967,10 +8963,10 @@
         <v>305</v>
       </c>
       <c r="D89" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="E89" s="20" t="s">
         <v>779</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -8984,10 +8980,10 @@
         <v>305</v>
       </c>
       <c r="D90" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="E90" s="19" t="s">
         <v>781</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9001,10 +8997,10 @@
         <v>305</v>
       </c>
       <c r="D91" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="E91" s="20" t="s">
         <v>783</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9018,10 +9014,10 @@
         <v>305</v>
       </c>
       <c r="D92" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>785</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9035,10 +9031,10 @@
         <v>305</v>
       </c>
       <c r="D93" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E93" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9052,10 +9048,10 @@
         <v>305</v>
       </c>
       <c r="D94" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>787</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9069,10 +9065,10 @@
         <v>305</v>
       </c>
       <c r="D95" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="E95" s="20" t="s">
         <v>789</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9086,10 +9082,10 @@
         <v>305</v>
       </c>
       <c r="D96" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>791</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9103,10 +9099,10 @@
         <v>305</v>
       </c>
       <c r="D97" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="E97" s="20" t="s">
         <v>793</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9120,10 +9116,10 @@
         <v>305</v>
       </c>
       <c r="D98" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="E98" s="19" t="s">
         <v>795</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9137,10 +9133,10 @@
         <v>305</v>
       </c>
       <c r="D99" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="E99" s="20" t="s">
         <v>797</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9154,10 +9150,10 @@
         <v>305</v>
       </c>
       <c r="D100" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="E100" s="19" t="s">
         <v>799</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -9171,10 +9167,10 @@
         <v>305</v>
       </c>
       <c r="D101" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="E101" s="20" t="s">
         <v>801</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -9188,10 +9184,10 @@
         <v>305</v>
       </c>
       <c r="D102" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="E102" s="19" t="s">
         <v>803</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9205,10 +9201,10 @@
         <v>305</v>
       </c>
       <c r="D103" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="E103" s="20" t="s">
         <v>805</v>
-      </c>
-      <c r="E103" s="20" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -9222,10 +9218,10 @@
         <v>305</v>
       </c>
       <c r="D104" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="E104" s="19" t="s">
         <v>807</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -9239,10 +9235,10 @@
         <v>305</v>
       </c>
       <c r="D105" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="E105" s="20" t="s">
         <v>809</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9256,10 +9252,10 @@
         <v>305</v>
       </c>
       <c r="D106" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="E106" s="19" t="s">
         <v>811</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9273,10 +9269,10 @@
         <v>305</v>
       </c>
       <c r="D107" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="E107" s="20" t="s">
         <v>813</v>
-      </c>
-      <c r="E107" s="20" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -9290,10 +9286,10 @@
         <v>305</v>
       </c>
       <c r="D108" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="E108" s="19" t="s">
         <v>815</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9307,10 +9303,10 @@
         <v>305</v>
       </c>
       <c r="D109" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="E109" s="20" t="s">
         <v>817</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9324,10 +9320,10 @@
         <v>305</v>
       </c>
       <c r="D110" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="E110" s="19" t="s">
         <v>819</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9341,10 +9337,10 @@
         <v>305</v>
       </c>
       <c r="D111" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="E111" s="20" t="s">
         <v>821</v>
-      </c>
-      <c r="E111" s="20" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9358,10 +9354,10 @@
         <v>305</v>
       </c>
       <c r="D112" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="E112" s="19" t="s">
         <v>823</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9375,10 +9371,10 @@
         <v>305</v>
       </c>
       <c r="D113" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="E113" s="20" t="s">
         <v>823</v>
-      </c>
-      <c r="E113" s="20" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9392,10 +9388,10 @@
         <v>305</v>
       </c>
       <c r="D114" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="E114" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9409,10 +9405,10 @@
         <v>305</v>
       </c>
       <c r="D115" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E115" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="E115" s="20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9426,10 +9422,10 @@
         <v>305</v>
       </c>
       <c r="D116" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="E116" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9443,10 +9439,10 @@
         <v>305</v>
       </c>
       <c r="D117" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="E117" s="20" t="s">
         <v>829</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9460,10 +9456,10 @@
         <v>305</v>
       </c>
       <c r="D118" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E118" s="19" t="s">
         <v>831</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9477,10 +9473,10 @@
         <v>305</v>
       </c>
       <c r="D119" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="E119" s="20" t="s">
         <v>833</v>
-      </c>
-      <c r="E119" s="20" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9494,10 +9490,10 @@
         <v>305</v>
       </c>
       <c r="D120" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="E120" s="19" t="s">
         <v>835</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9511,10 +9507,10 @@
         <v>305</v>
       </c>
       <c r="D121" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="E121" s="20" t="s">
         <v>837</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -9528,10 +9524,10 @@
         <v>305</v>
       </c>
       <c r="D122" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="E122" s="19" t="s">
         <v>839</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9545,10 +9541,10 @@
         <v>305</v>
       </c>
       <c r="D123" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="E123" s="20" t="s">
         <v>841</v>
-      </c>
-      <c r="E123" s="20" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9562,10 +9558,10 @@
         <v>305</v>
       </c>
       <c r="D124" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="E124" s="19" t="s">
         <v>843</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9579,10 +9575,10 @@
         <v>305</v>
       </c>
       <c r="D125" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="E125" s="20" t="s">
         <v>845</v>
-      </c>
-      <c r="E125" s="20" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9596,10 +9592,10 @@
         <v>305</v>
       </c>
       <c r="D126" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>847</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9613,10 +9609,10 @@
         <v>305</v>
       </c>
       <c r="D127" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="E127" s="20" t="s">
         <v>849</v>
-      </c>
-      <c r="E127" s="20" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9630,10 +9626,10 @@
         <v>305</v>
       </c>
       <c r="D128" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>851</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9647,10 +9643,10 @@
         <v>305</v>
       </c>
       <c r="D129" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="E129" s="20" t="s">
         <v>853</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9664,10 +9660,10 @@
         <v>305</v>
       </c>
       <c r="D130" s="19" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E130" s="19" t="s">
         <v>1108</v>
-      </c>
-      <c r="E130" s="19" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9681,10 +9677,10 @@
         <v>305</v>
       </c>
       <c r="D131" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="E131" s="20" t="s">
         <v>855</v>
-      </c>
-      <c r="E131" s="20" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9698,10 +9694,10 @@
         <v>305</v>
       </c>
       <c r="D132" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>857</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9715,10 +9711,10 @@
         <v>305</v>
       </c>
       <c r="D133" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="E133" s="20" t="s">
         <v>859</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9732,10 +9728,10 @@
         <v>305</v>
       </c>
       <c r="D134" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="E134" s="19" t="s">
         <v>861</v>
-      </c>
-      <c r="E134" s="19" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9749,10 +9745,10 @@
         <v>305</v>
       </c>
       <c r="D135" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="E135" s="20" t="s">
         <v>863</v>
-      </c>
-      <c r="E135" s="20" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -9766,10 +9762,10 @@
         <v>305</v>
       </c>
       <c r="D136" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="E136" s="19" t="s">
         <v>865</v>
-      </c>
-      <c r="E136" s="19" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -9783,10 +9779,10 @@
         <v>305</v>
       </c>
       <c r="D137" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="E137" s="20" t="s">
         <v>865</v>
-      </c>
-      <c r="E137" s="20" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -9800,10 +9796,10 @@
         <v>305</v>
       </c>
       <c r="D138" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="E138" s="19" t="s">
         <v>867</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -9817,10 +9813,10 @@
         <v>305</v>
       </c>
       <c r="D139" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="E139" s="20" t="s">
         <v>869</v>
-      </c>
-      <c r="E139" s="20" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -9834,10 +9830,10 @@
         <v>305</v>
       </c>
       <c r="D140" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="E140" s="19" t="s">
         <v>871</v>
-      </c>
-      <c r="E140" s="19" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -9851,10 +9847,10 @@
         <v>305</v>
       </c>
       <c r="D141" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E141" s="20" t="s">
         <v>873</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -9868,10 +9864,10 @@
         <v>305</v>
       </c>
       <c r="D142" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="E142" s="19" t="s">
         <v>875</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -9885,10 +9881,10 @@
         <v>305</v>
       </c>
       <c r="D143" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="E143" s="20" t="s">
         <v>877</v>
-      </c>
-      <c r="E143" s="20" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -9902,10 +9898,10 @@
         <v>305</v>
       </c>
       <c r="D144" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="E144" s="19" t="s">
         <v>879</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -9919,10 +9915,10 @@
         <v>305</v>
       </c>
       <c r="D145" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="E145" s="20" t="s">
         <v>881</v>
-      </c>
-      <c r="E145" s="20" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -9936,10 +9932,10 @@
         <v>305</v>
       </c>
       <c r="D146" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="E146" s="19" t="s">
         <v>883</v>
-      </c>
-      <c r="E146" s="19" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -9953,10 +9949,10 @@
         <v>305</v>
       </c>
       <c r="D147" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="E147" s="20" t="s">
         <v>785</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -9970,10 +9966,10 @@
         <v>305</v>
       </c>
       <c r="D148" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="E148" s="19" t="s">
         <v>885</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -9987,10 +9983,10 @@
         <v>305</v>
       </c>
       <c r="D149" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="E149" s="20" t="s">
         <v>887</v>
-      </c>
-      <c r="E149" s="20" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -10004,10 +10000,10 @@
         <v>305</v>
       </c>
       <c r="D150" s="19" t="s">
+        <v>888</v>
+      </c>
+      <c r="E150" s="19" t="s">
         <v>889</v>
-      </c>
-      <c r="E150" s="19" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -10021,10 +10017,10 @@
         <v>305</v>
       </c>
       <c r="D151" s="20" t="s">
+        <v>890</v>
+      </c>
+      <c r="E151" s="20" t="s">
         <v>891</v>
-      </c>
-      <c r="E151" s="20" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10038,10 +10034,10 @@
         <v>305</v>
       </c>
       <c r="D152" s="19" t="s">
+        <v>892</v>
+      </c>
+      <c r="E152" s="19" t="s">
         <v>893</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -10055,10 +10051,10 @@
         <v>305</v>
       </c>
       <c r="D153" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E153" s="20" t="s">
         <v>895</v>
-      </c>
-      <c r="E153" s="20" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10072,10 +10068,10 @@
         <v>305</v>
       </c>
       <c r="D154" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="E154" s="19" t="s">
         <v>897</v>
-      </c>
-      <c r="E154" s="19" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10089,10 +10085,10 @@
         <v>305</v>
       </c>
       <c r="D155" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="E155" s="20" t="s">
         <v>899</v>
-      </c>
-      <c r="E155" s="20" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -10106,10 +10102,10 @@
         <v>305</v>
       </c>
       <c r="D156" s="19" t="s">
+        <v>900</v>
+      </c>
+      <c r="E156" s="19" t="s">
         <v>901</v>
-      </c>
-      <c r="E156" s="19" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -10123,10 +10119,10 @@
         <v>305</v>
       </c>
       <c r="D157" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="E157" s="20" t="s">
         <v>903</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -10140,10 +10136,10 @@
         <v>305</v>
       </c>
       <c r="D158" s="19" t="s">
+        <v>904</v>
+      </c>
+      <c r="E158" s="19" t="s">
         <v>905</v>
-      </c>
-      <c r="E158" s="19" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -10157,10 +10153,10 @@
         <v>305</v>
       </c>
       <c r="D159" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="E159" s="20" t="s">
         <v>907</v>
-      </c>
-      <c r="E159" s="20" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -10174,10 +10170,10 @@
         <v>305</v>
       </c>
       <c r="D160" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="E160" s="19" t="s">
         <v>909</v>
-      </c>
-      <c r="E160" s="19" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -10191,10 +10187,10 @@
         <v>305</v>
       </c>
       <c r="D161" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="E161" s="20" t="s">
         <v>911</v>
-      </c>
-      <c r="E161" s="20" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -10208,10 +10204,10 @@
         <v>305</v>
       </c>
       <c r="D162" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="E162" s="19" t="s">
         <v>913</v>
-      </c>
-      <c r="E162" s="19" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10225,10 +10221,10 @@
         <v>305</v>
       </c>
       <c r="D163" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="E163" s="20" t="s">
         <v>915</v>
-      </c>
-      <c r="E163" s="20" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10242,10 +10238,10 @@
         <v>305</v>
       </c>
       <c r="D164" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="E164" s="19" t="s">
         <v>917</v>
-      </c>
-      <c r="E164" s="19" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10259,10 +10255,10 @@
         <v>305</v>
       </c>
       <c r="D165" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E165" s="20" t="s">
         <v>1116</v>
-      </c>
-      <c r="E165" s="20" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10276,10 +10272,10 @@
         <v>305</v>
       </c>
       <c r="D166" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="E166" s="19" t="s">
         <v>919</v>
-      </c>
-      <c r="E166" s="19" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10293,10 +10289,10 @@
         <v>305</v>
       </c>
       <c r="D167" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="E167" s="20" t="s">
         <v>921</v>
-      </c>
-      <c r="E167" s="20" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -10310,10 +10306,10 @@
         <v>305</v>
       </c>
       <c r="D168" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="E168" s="19" t="s">
         <v>923</v>
-      </c>
-      <c r="E168" s="19" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10327,10 +10323,10 @@
         <v>305</v>
       </c>
       <c r="D169" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="E169" s="20" t="s">
         <v>925</v>
-      </c>
-      <c r="E169" s="20" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10344,10 +10340,10 @@
         <v>305</v>
       </c>
       <c r="D170" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="E170" s="19" t="s">
         <v>927</v>
-      </c>
-      <c r="E170" s="19" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10361,10 +10357,10 @@
         <v>305</v>
       </c>
       <c r="D171" s="20" t="s">
+        <v>928</v>
+      </c>
+      <c r="E171" s="20" t="s">
         <v>929</v>
-      </c>
-      <c r="E171" s="20" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10378,10 +10374,10 @@
         <v>305</v>
       </c>
       <c r="D172" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>931</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -10395,10 +10391,10 @@
         <v>305</v>
       </c>
       <c r="D173" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="E173" s="20" t="s">
         <v>933</v>
-      </c>
-      <c r="E173" s="20" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -10412,10 +10408,10 @@
         <v>305</v>
       </c>
       <c r="D174" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="E174" s="19" t="s">
         <v>935</v>
-      </c>
-      <c r="E174" s="19" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -10429,10 +10425,10 @@
         <v>305</v>
       </c>
       <c r="D175" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="E175" s="20" t="s">
         <v>937</v>
-      </c>
-      <c r="E175" s="20" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -10446,10 +10442,10 @@
         <v>305</v>
       </c>
       <c r="D176" s="19" t="s">
+        <v>938</v>
+      </c>
+      <c r="E176" s="19" t="s">
         <v>939</v>
-      </c>
-      <c r="E176" s="19" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -10463,10 +10459,10 @@
         <v>305</v>
       </c>
       <c r="D177" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="E177" s="20" t="s">
         <v>939</v>
-      </c>
-      <c r="E177" s="20" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -10480,10 +10476,10 @@
         <v>305</v>
       </c>
       <c r="D178" s="19" t="s">
+        <v>940</v>
+      </c>
+      <c r="E178" s="19" t="s">
         <v>941</v>
-      </c>
-      <c r="E178" s="19" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -10497,10 +10493,10 @@
         <v>305</v>
       </c>
       <c r="D179" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="E179" s="20" t="s">
         <v>925</v>
-      </c>
-      <c r="E179" s="20" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -10514,10 +10510,10 @@
         <v>305</v>
       </c>
       <c r="D180" s="19" t="s">
+        <v>938</v>
+      </c>
+      <c r="E180" s="19" t="s">
         <v>939</v>
-      </c>
-      <c r="E180" s="19" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -10531,10 +10527,10 @@
         <v>305</v>
       </c>
       <c r="D181" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="E181" s="20" t="s">
         <v>943</v>
-      </c>
-      <c r="E181" s="20" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -10548,10 +10544,10 @@
         <v>305</v>
       </c>
       <c r="D182" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="E182" s="19" t="s">
         <v>945</v>
-      </c>
-      <c r="E182" s="19" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -10565,10 +10561,10 @@
         <v>305</v>
       </c>
       <c r="D183" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="E183" s="20" t="s">
         <v>947</v>
-      </c>
-      <c r="E183" s="20" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -10582,10 +10578,10 @@
         <v>305</v>
       </c>
       <c r="D184" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="E184" s="19" t="s">
         <v>949</v>
-      </c>
-      <c r="E184" s="19" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -10599,10 +10595,10 @@
         <v>305</v>
       </c>
       <c r="D185" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="E185" s="20" t="s">
         <v>951</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -10616,10 +10612,10 @@
         <v>305</v>
       </c>
       <c r="D186" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="E186" s="19" t="s">
         <v>953</v>
-      </c>
-      <c r="E186" s="19" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -10633,10 +10629,10 @@
         <v>305</v>
       </c>
       <c r="D187" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="E187" s="20" t="s">
         <v>951</v>
-      </c>
-      <c r="E187" s="20" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -10650,10 +10646,10 @@
         <v>305</v>
       </c>
       <c r="D188" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="E188" s="19" t="s">
         <v>955</v>
-      </c>
-      <c r="E188" s="19" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -10667,10 +10663,10 @@
         <v>305</v>
       </c>
       <c r="D189" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="E189" s="20" t="s">
         <v>951</v>
-      </c>
-      <c r="E189" s="20" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -10684,10 +10680,10 @@
         <v>305</v>
       </c>
       <c r="D190" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="E190" s="19" t="s">
         <v>957</v>
-      </c>
-      <c r="E190" s="19" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -10701,10 +10697,10 @@
         <v>305</v>
       </c>
       <c r="D191" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E191" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="E191" s="20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -10718,10 +10714,10 @@
         <v>305</v>
       </c>
       <c r="D192" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="E192" s="19" t="s">
         <v>959</v>
-      </c>
-      <c r="E192" s="19" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -10735,10 +10731,10 @@
         <v>305</v>
       </c>
       <c r="D193" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="E193" s="20" t="s">
         <v>961</v>
-      </c>
-      <c r="E193" s="20" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -10752,10 +10748,10 @@
         <v>305</v>
       </c>
       <c r="D194" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="E194" s="19" t="s">
         <v>963</v>
-      </c>
-      <c r="E194" s="19" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -10769,10 +10765,10 @@
         <v>305</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -10786,10 +10782,10 @@
         <v>305</v>
       </c>
       <c r="D196" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="E196" s="19" t="s">
         <v>966</v>
-      </c>
-      <c r="E196" s="19" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -10803,10 +10799,10 @@
         <v>305</v>
       </c>
       <c r="D197" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="E197" s="20" t="s">
         <v>968</v>
-      </c>
-      <c r="E197" s="20" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -10820,10 +10816,10 @@
         <v>305</v>
       </c>
       <c r="D198" s="19" t="s">
+        <v>969</v>
+      </c>
+      <c r="E198" s="19" t="s">
         <v>970</v>
-      </c>
-      <c r="E198" s="19" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -10837,10 +10833,10 @@
         <v>305</v>
       </c>
       <c r="D199" s="20" t="s">
+        <v>971</v>
+      </c>
+      <c r="E199" s="20" t="s">
         <v>972</v>
-      </c>
-      <c r="E199" s="20" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -10854,10 +10850,10 @@
         <v>305</v>
       </c>
       <c r="D200" s="19" t="s">
+        <v>973</v>
+      </c>
+      <c r="E200" s="19" t="s">
         <v>974</v>
-      </c>
-      <c r="E200" s="19" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -10871,10 +10867,10 @@
         <v>305</v>
       </c>
       <c r="D201" s="20" t="s">
+        <v>975</v>
+      </c>
+      <c r="E201" s="20" t="s">
         <v>976</v>
-      </c>
-      <c r="E201" s="20" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -10888,10 +10884,10 @@
         <v>305</v>
       </c>
       <c r="D202" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E202" s="19" t="s">
         <v>978</v>
-      </c>
-      <c r="E202" s="19" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -10905,10 +10901,10 @@
         <v>305</v>
       </c>
       <c r="D203" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="E203" s="20" t="s">
         <v>980</v>
-      </c>
-      <c r="E203" s="20" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -10922,10 +10918,10 @@
         <v>305</v>
       </c>
       <c r="D204" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="E204" s="19" t="s">
         <v>982</v>
-      </c>
-      <c r="E204" s="19" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -10939,15 +10935,15 @@
         <v>305</v>
       </c>
       <c r="D205" s="20" t="s">
+        <v>983</v>
+      </c>
+      <c r="E205" s="20" t="s">
         <v>984</v>
-      </c>
-      <c r="E205" s="20" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B206" s="18" t="s">
         <v>304</v>
@@ -10956,10 +10952,10 @@
         <v>305</v>
       </c>
       <c r="D206" s="19" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E206" s="19" t="s">
         <v>1119</v>
-      </c>
-      <c r="E206" s="19" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -10973,10 +10969,10 @@
         <v>305</v>
       </c>
       <c r="D207" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="E207" s="20" t="s">
         <v>986</v>
-      </c>
-      <c r="E207" s="20" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -10990,10 +10986,10 @@
         <v>305</v>
       </c>
       <c r="D208" s="19" t="s">
+        <v>987</v>
+      </c>
+      <c r="E208" s="19" t="s">
         <v>988</v>
-      </c>
-      <c r="E208" s="19" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -11007,10 +11003,10 @@
         <v>305</v>
       </c>
       <c r="D209" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="E209" s="20" t="s">
         <v>990</v>
-      </c>
-      <c r="E209" s="20" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -11024,10 +11020,10 @@
         <v>305</v>
       </c>
       <c r="D210" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="E210" s="19" t="s">
         <v>992</v>
-      </c>
-      <c r="E210" s="19" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -11041,10 +11037,10 @@
         <v>305</v>
       </c>
       <c r="D211" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="E211" s="20" t="s">
         <v>988</v>
-      </c>
-      <c r="E211" s="20" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -11058,10 +11054,10 @@
         <v>305</v>
       </c>
       <c r="D212" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="E212" s="19" t="s">
         <v>994</v>
-      </c>
-      <c r="E212" s="19" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -11075,10 +11071,10 @@
         <v>305</v>
       </c>
       <c r="D213" s="20" t="s">
+        <v>995</v>
+      </c>
+      <c r="E213" s="20" t="s">
         <v>996</v>
-      </c>
-      <c r="E213" s="20" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -11092,10 +11088,10 @@
         <v>305</v>
       </c>
       <c r="D214" s="19" t="s">
+        <v>997</v>
+      </c>
+      <c r="E214" s="19" t="s">
         <v>998</v>
-      </c>
-      <c r="E214" s="19" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -11109,10 +11105,10 @@
         <v>305</v>
       </c>
       <c r="D215" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="E215" s="20" t="s">
         <v>1000</v>
-      </c>
-      <c r="E215" s="20" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -11126,10 +11122,10 @@
         <v>305</v>
       </c>
       <c r="D216" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E216" s="19" t="s">
         <v>1002</v>
-      </c>
-      <c r="E216" s="19" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -11143,10 +11139,10 @@
         <v>305</v>
       </c>
       <c r="D217" s="20" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E217" s="20" t="s">
         <v>1004</v>
-      </c>
-      <c r="E217" s="20" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -11160,10 +11156,10 @@
         <v>305</v>
       </c>
       <c r="D218" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E218" s="19" t="s">
         <v>1006</v>
-      </c>
-      <c r="E218" s="19" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -11177,10 +11173,10 @@
         <v>305</v>
       </c>
       <c r="D219" s="20" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E219" s="20" t="s">
         <v>1004</v>
-      </c>
-      <c r="E219" s="20" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -11194,10 +11190,10 @@
         <v>305</v>
       </c>
       <c r="D220" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E220" s="19" t="s">
         <v>1008</v>
-      </c>
-      <c r="E220" s="19" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -11211,10 +11207,10 @@
         <v>305</v>
       </c>
       <c r="D221" s="20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E221" s="20" t="s">
         <v>1010</v>
-      </c>
-      <c r="E221" s="20" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -11228,10 +11224,10 @@
         <v>305</v>
       </c>
       <c r="D222" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E222" s="19" t="s">
         <v>1012</v>
-      </c>
-      <c r="E222" s="19" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -11245,10 +11241,10 @@
         <v>305</v>
       </c>
       <c r="D223" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E223" s="20" t="s">
         <v>1014</v>
-      </c>
-      <c r="E223" s="20" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -11262,10 +11258,10 @@
         <v>305</v>
       </c>
       <c r="D224" s="19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E224" s="19" t="s">
         <v>1014</v>
-      </c>
-      <c r="E224" s="19" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -11279,10 +11275,10 @@
         <v>305</v>
       </c>
       <c r="D225" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E225" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="E225" s="20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -11296,10 +11292,10 @@
         <v>305</v>
       </c>
       <c r="D226" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E226" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E226" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -11313,10 +11309,10 @@
         <v>305</v>
       </c>
       <c r="D227" s="20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E227" s="20" t="s">
         <v>1016</v>
-      </c>
-      <c r="E227" s="20" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -11330,10 +11326,10 @@
         <v>305</v>
       </c>
       <c r="D228" s="19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E228" s="19" t="s">
         <v>1018</v>
-      </c>
-      <c r="E228" s="19" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -11347,10 +11343,10 @@
         <v>305</v>
       </c>
       <c r="D229" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E229" s="20" t="s">
         <v>1020</v>
-      </c>
-      <c r="E229" s="20" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -11364,10 +11360,10 @@
         <v>305</v>
       </c>
       <c r="D230" s="19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E230" s="19" t="s">
         <v>1022</v>
-      </c>
-      <c r="E230" s="19" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -11381,10 +11377,10 @@
         <v>305</v>
       </c>
       <c r="D231" s="20" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E231" s="20" t="s">
         <v>1024</v>
-      </c>
-      <c r="E231" s="20" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -11398,10 +11394,10 @@
         <v>305</v>
       </c>
       <c r="D232" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E232" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E232" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -11415,10 +11411,10 @@
         <v>305</v>
       </c>
       <c r="D233" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E233" s="20" t="s">
         <v>1026</v>
-      </c>
-      <c r="E233" s="20" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -11432,10 +11428,10 @@
         <v>305</v>
       </c>
       <c r="D234" s="19" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E234" s="19" t="s">
         <v>1028</v>
-      </c>
-      <c r="E234" s="19" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -11449,10 +11445,10 @@
         <v>305</v>
       </c>
       <c r="D235" s="20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E235" s="20" t="s">
         <v>1030</v>
-      </c>
-      <c r="E235" s="20" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -11466,10 +11462,10 @@
         <v>305</v>
       </c>
       <c r="D236" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E236" s="19" t="s">
         <v>1032</v>
-      </c>
-      <c r="E236" s="19" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -11483,10 +11479,10 @@
         <v>305</v>
       </c>
       <c r="D237" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E237" s="20" t="s">
         <v>1034</v>
-      </c>
-      <c r="E237" s="20" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -11500,10 +11496,10 @@
         <v>305</v>
       </c>
       <c r="D238" s="19" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E238" s="19" t="s">
         <v>1036</v>
-      </c>
-      <c r="E238" s="19" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -11517,10 +11513,10 @@
         <v>305</v>
       </c>
       <c r="D239" s="20" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E239" s="20" t="s">
         <v>1038</v>
-      </c>
-      <c r="E239" s="20" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -11534,10 +11530,10 @@
         <v>305</v>
       </c>
       <c r="D240" s="19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E240" s="19" t="s">
         <v>1040</v>
-      </c>
-      <c r="E240" s="19" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -11551,10 +11547,10 @@
         <v>305</v>
       </c>
       <c r="D241" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E241" s="20" t="s">
         <v>1042</v>
-      </c>
-      <c r="E241" s="20" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -11568,10 +11564,10 @@
         <v>305</v>
       </c>
       <c r="D242" s="19" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E242" s="19" t="s">
         <v>1044</v>
-      </c>
-      <c r="E242" s="19" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -11585,10 +11581,10 @@
         <v>305</v>
       </c>
       <c r="D243" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E243" s="20" t="s">
         <v>1046</v>
-      </c>
-      <c r="E243" s="20" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -11602,10 +11598,10 @@
         <v>305</v>
       </c>
       <c r="D244" s="19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E244" s="19" t="s">
         <v>1048</v>
-      </c>
-      <c r="E244" s="19" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -11619,10 +11615,10 @@
         <v>305</v>
       </c>
       <c r="D245" s="20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E245" s="20" t="s">
         <v>1050</v>
-      </c>
-      <c r="E245" s="20" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -11636,10 +11632,10 @@
         <v>305</v>
       </c>
       <c r="D246" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E246" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E246" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -11653,10 +11649,10 @@
         <v>305</v>
       </c>
       <c r="D247" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E247" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="E247" s="20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -11670,10 +11666,10 @@
         <v>305</v>
       </c>
       <c r="D248" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E248" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E248" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -11687,10 +11683,10 @@
         <v>305</v>
       </c>
       <c r="D249" s="20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E249" s="20" t="s">
         <v>1052</v>
-      </c>
-      <c r="E249" s="20" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -11704,10 +11700,10 @@
         <v>305</v>
       </c>
       <c r="D250" s="19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E250" s="19" t="s">
         <v>1054</v>
-      </c>
-      <c r="E250" s="19" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -11721,10 +11717,10 @@
         <v>305</v>
       </c>
       <c r="D251" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E251" s="20" t="s">
         <v>1056</v>
-      </c>
-      <c r="E251" s="20" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -11738,10 +11734,10 @@
         <v>305</v>
       </c>
       <c r="D252" s="19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E252" s="19" t="s">
         <v>1058</v>
-      </c>
-      <c r="E252" s="19" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -11755,10 +11751,10 @@
         <v>305</v>
       </c>
       <c r="D253" s="20" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E253" s="20" t="s">
         <v>1112</v>
-      </c>
-      <c r="E253" s="20" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -11772,10 +11768,10 @@
         <v>305</v>
       </c>
       <c r="D254" s="19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E254" s="19" t="s">
         <v>1060</v>
-      </c>
-      <c r="E254" s="19" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -11789,10 +11785,10 @@
         <v>305</v>
       </c>
       <c r="D255" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E255" s="20" t="s">
         <v>1062</v>
-      </c>
-      <c r="E255" s="20" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -11806,10 +11802,10 @@
         <v>305</v>
       </c>
       <c r="D256" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E256" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E256" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -11823,10 +11819,10 @@
         <v>305</v>
       </c>
       <c r="D257" s="20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E257" s="20" t="s">
         <v>1064</v>
-      </c>
-      <c r="E257" s="20" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -11840,10 +11836,10 @@
         <v>305</v>
       </c>
       <c r="D258" s="19" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E258" s="19" t="s">
         <v>1042</v>
-      </c>
-      <c r="E258" s="19" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -11857,10 +11853,10 @@
         <v>305</v>
       </c>
       <c r="D259" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E259" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="E259" s="20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -11874,10 +11870,10 @@
         <v>305</v>
       </c>
       <c r="D260" s="19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E260" s="19" t="s">
         <v>1066</v>
-      </c>
-      <c r="E260" s="19" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -11891,10 +11887,10 @@
         <v>305</v>
       </c>
       <c r="D261" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E261" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="E261" s="20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -11908,10 +11904,10 @@
         <v>305</v>
       </c>
       <c r="D262" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E262" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E262" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -11925,10 +11921,10 @@
         <v>305</v>
       </c>
       <c r="D263" s="20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E263" s="20" t="s">
         <v>1068</v>
-      </c>
-      <c r="E263" s="20" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -11942,10 +11938,10 @@
         <v>305</v>
       </c>
       <c r="D264" s="19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E264" s="19" t="s">
         <v>1070</v>
-      </c>
-      <c r="E264" s="19" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -11959,10 +11955,10 @@
         <v>305</v>
       </c>
       <c r="D265" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E265" s="20" t="s">
         <v>1072</v>
-      </c>
-      <c r="E265" s="20" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -11976,10 +11972,10 @@
         <v>305</v>
       </c>
       <c r="D266" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E266" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E266" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -11993,10 +11989,10 @@
         <v>305</v>
       </c>
       <c r="D267" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E267" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="E267" s="20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -12010,10 +12006,10 @@
         <v>305</v>
       </c>
       <c r="D268" s="19" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E268" s="19" t="s">
         <v>1074</v>
-      </c>
-      <c r="E268" s="19" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -12027,15 +12023,15 @@
         <v>305</v>
       </c>
       <c r="D269" s="20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E269" s="20" t="s">
         <v>1076</v>
-      </c>
-      <c r="E269" s="20" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="18" t="s">
-        <v>608</v>
+        <v>1121</v>
       </c>
       <c r="B270" s="18" t="s">
         <v>304</v>
@@ -12044,15 +12040,15 @@
         <v>305</v>
       </c>
       <c r="D270" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E270" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E270" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B271" s="18" t="s">
         <v>304</v>
@@ -12061,15 +12057,15 @@
         <v>305</v>
       </c>
       <c r="D271" s="20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E271" s="20" t="s">
         <v>1078</v>
-      </c>
-      <c r="E271" s="20" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B272" s="18" t="s">
         <v>304</v>
@@ -12078,15 +12074,15 @@
         <v>305</v>
       </c>
       <c r="D272" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E272" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E272" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B273" s="18" t="s">
         <v>304</v>
@@ -12095,15 +12091,15 @@
         <v>305</v>
       </c>
       <c r="D273" s="20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E273" s="20" t="s">
         <v>1080</v>
-      </c>
-      <c r="E273" s="20" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B274" s="18" t="s">
         <v>304</v>
@@ -12112,15 +12108,15 @@
         <v>305</v>
       </c>
       <c r="D274" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E274" s="19" t="s">
         <v>1082</v>
-      </c>
-      <c r="E274" s="19" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B275" s="18" t="s">
         <v>304</v>
@@ -12129,15 +12125,15 @@
         <v>305</v>
       </c>
       <c r="D275" s="20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E275" s="20" t="s">
         <v>1084</v>
-      </c>
-      <c r="E275" s="20" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B276" s="18" t="s">
         <v>304</v>
@@ -12146,15 +12142,15 @@
         <v>305</v>
       </c>
       <c r="D276" s="19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E276" s="19" t="s">
         <v>1086</v>
-      </c>
-      <c r="E276" s="19" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B277" s="18" t="s">
         <v>304</v>
@@ -12163,15 +12159,15 @@
         <v>305</v>
       </c>
       <c r="D277" s="20" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E277" s="20" t="s">
         <v>1088</v>
-      </c>
-      <c r="E277" s="20" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B278" s="18" t="s">
         <v>304</v>
@@ -12180,15 +12176,15 @@
         <v>305</v>
       </c>
       <c r="D278" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E278" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E278" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B279" s="18" t="s">
         <v>304</v>
@@ -12197,15 +12193,15 @@
         <v>305</v>
       </c>
       <c r="D279" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E279" s="20" t="s">
         <v>1090</v>
-      </c>
-      <c r="E279" s="20" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B280" s="18" t="s">
         <v>304</v>
@@ -12214,15 +12210,15 @@
         <v>305</v>
       </c>
       <c r="D280" s="19" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E280" s="19" t="s">
         <v>1092</v>
-      </c>
-      <c r="E280" s="19" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B281" s="18" t="s">
         <v>304</v>
@@ -12231,15 +12227,15 @@
         <v>305</v>
       </c>
       <c r="D281" s="20" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E281" s="20" t="s">
         <v>1094</v>
-      </c>
-      <c r="E281" s="20" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B282" s="18" t="s">
         <v>304</v>
@@ -12248,15 +12244,15 @@
         <v>305</v>
       </c>
       <c r="D282" s="19" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E282" s="19" t="s">
         <v>1096</v>
-      </c>
-      <c r="E282" s="19" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B283" s="18" t="s">
         <v>304</v>
@@ -12265,15 +12261,15 @@
         <v>305</v>
       </c>
       <c r="D283" s="20" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E283" s="20" t="s">
         <v>1098</v>
-      </c>
-      <c r="E283" s="20" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B284" s="18" t="s">
         <v>343</v>
@@ -12282,66 +12278,66 @@
         <v>305</v>
       </c>
       <c r="D284" s="19" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E284" s="19" t="s">
         <v>1100</v>
-      </c>
-      <c r="E284" s="19" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="B285" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="B285" s="18" t="s">
-        <v>624</v>
-      </c>
       <c r="C285" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D285" s="20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E285" s="20" t="s">
         <v>1102</v>
-      </c>
-      <c r="E285" s="20" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C286" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D286" s="19" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E286" s="19" t="s">
         <v>1104</v>
-      </c>
-      <c r="E286" s="19" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C287" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D287" s="20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E287" s="20" t="s">
         <v>1106</v>
-      </c>
-      <c r="E287" s="20" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B288" s="18" t="s">
         <v>304</v>
@@ -12350,10 +12346,10 @@
         <v>305</v>
       </c>
       <c r="D288" s="19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E288" s="19" t="s">
         <v>1034</v>
-      </c>
-      <c r="E288" s="19" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
